--- a/MakeAGame/LubanTool/GameConfig/Datas/Character.xlsx
+++ b/MakeAGame/LubanTool/GameConfig/Datas/Character.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>##var</t>
   </si>
@@ -25,6 +25,9 @@
     <t>rarity</t>
   </si>
   <si>
+    <t>cardPack</t>
+  </si>
+  <si>
     <t>sanCost</t>
   </si>
   <si>
@@ -34,9 +37,6 @@
     <t>deathDesc</t>
   </si>
   <si>
-    <t>cardSpriteName</t>
-  </si>
-  <si>
     <t>hp</t>
   </si>
   <si>
@@ -61,9 +61,6 @@
     <t>specialFeature</t>
   </si>
   <si>
-    <t>pieceSpriteName</t>
-  </si>
-  <si>
     <t>width</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
     <t>GameData.Rarity</t>
   </si>
   <si>
+    <t>GameData.CardPack</t>
+  </si>
+  <si>
     <t>GameData.PlayerBonus</t>
   </si>
   <si>
@@ -124,6 +124,9 @@
     <t>稀有度</t>
   </si>
   <si>
+    <t>卡包</t>
+  </si>
+  <si>
     <t>精神消耗</t>
   </si>
   <si>
@@ -133,9 +136,6 @@
     <t>死面功能描述</t>
   </si>
   <si>
-    <t>牌面图片文件名</t>
-  </si>
-  <si>
     <t>血量</t>
   </si>
   <si>
@@ -160,9 +160,6 @@
     <t>额外属性</t>
   </si>
   <si>
-    <t>棋子图片文件名</t>
-  </si>
-  <si>
     <t>棋子宽</t>
   </si>
   <si>
@@ -193,15 +190,15 @@
     <t>Orange</t>
   </si>
   <si>
+    <t>Base</t>
+  </si>
+  <si>
     <t>0,0</t>
   </si>
   <si>
     <t>在当前位置放置一个不可摧毁的障碍物，获得一张弗朗西斯。</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
   </si>
   <si>
     <t>当前位置的时间流逝速率永久-0.5，获得一张伦道夫。</t>
-  </si>
-  <si>
-    <t>22</t>
   </si>
   <si>
     <t>35</t>
@@ -281,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -302,6 +296,11 @@
       <color indexed="12"/>
       <name val="等线"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="13"/>
+      <name val="等线"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -317,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -348,10 +347,10 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -364,36 +363,6 @@
       </right>
       <top style="thin">
         <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -409,6 +378,81 @@
       </right>
       <top style="thin">
         <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -538,7 +582,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -548,28 +592,40 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -578,28 +634,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -608,27 +658,30 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -645,6 +698,15 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -667,6 +729,7 @@
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffbd6427"/>
       <rgbColor rgb="ffbd6427"/>
     </indexedColors>
   </colors>
@@ -1729,7 +1792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1739,10 +1802,9 @@
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.1719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.35156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.8516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3516" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.35156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.8516" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.85156" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.8516" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
@@ -1751,13 +1813,12 @@
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.6719" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.3516" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.1719" style="1" customWidth="1"/>
-    <col min="18" max="19" width="9" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1" customWidth="1"/>
-    <col min="22" max="22" width="18.8516" style="1" customWidth="1"/>
-    <col min="23" max="34" width="9" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1" customWidth="1"/>
+    <col min="21" max="21" width="18.8516" style="1" customWidth="1"/>
+    <col min="22" max="33" width="9" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -1770,13 +1831,13 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="5">
         <v>5</v>
       </c>
       <c r="G1" t="s" s="2">
@@ -1797,140 +1858,134 @@
       <c r="L1" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="3">
+      <c r="M1" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="4">
+      <c r="N1" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="5">
+      <c r="O1" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="6">
+      <c r="P1" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" t="s" s="7">
         <v>16</v>
       </c>
       <c r="R1" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="5">
+      <c r="S1" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="5">
+      <c r="T1" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="6">
+      <c r="U1" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" t="s" s="7">
         <v>21</v>
       </c>
       <c r="W1" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="5">
+      <c r="X1" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="Y1" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="D2" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="E2" t="s" s="11">
         <v>28</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="F2" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="F2" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>27</v>
       </c>
       <c r="I2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="J2" t="s" s="8">
+      <c r="J2" t="s" s="12">
         <v>29</v>
       </c>
       <c r="K2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="L2" t="s" s="8">
+      <c r="L2" t="s" s="12">
         <v>29</v>
       </c>
-      <c r="M2" t="s" s="3">
+      <c r="M2" t="s" s="6">
         <v>30</v>
       </c>
-      <c r="N2" t="s" s="4">
+      <c r="N2" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="O2" t="s" s="9">
+      <c r="O2" t="s" s="13">
         <v>31</v>
       </c>
-      <c r="P2" t="s" s="10">
+      <c r="P2" t="s" s="14">
         <v>31</v>
       </c>
-      <c r="Q2" t="s" s="2">
-        <v>27</v>
+      <c r="Q2" t="s" s="7">
+        <v>25</v>
       </c>
       <c r="R2" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="S2" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="T2" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="S2" t="s" s="15">
         <v>32</v>
       </c>
-      <c r="U2" t="s" s="6">
+      <c r="T2" t="s" s="8">
         <v>30</v>
       </c>
-      <c r="V2" t="s" s="8">
+      <c r="U2" t="s" s="12">
         <v>29</v>
       </c>
+      <c r="V2" t="s" s="7">
+        <v>30</v>
+      </c>
       <c r="W2" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="X2" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="Y2" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="X2" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
     </row>
     <row r="3" ht="16" customHeight="1">
       <c r="A3" t="s" s="2">
@@ -1942,13 +1997,13 @@
       <c r="C3" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="5">
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
@@ -1969,826 +2024,799 @@
       <c r="L3" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="M3" t="s" s="3">
+      <c r="M3" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="N3" t="s" s="4">
+      <c r="N3" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="O3" t="s" s="5">
+      <c r="O3" t="s" s="4">
         <v>47</v>
       </c>
-      <c r="P3" t="s" s="6">
+      <c r="P3" t="s" s="8">
         <v>48</v>
       </c>
-      <c r="Q3" t="s" s="2">
+      <c r="Q3" t="s" s="7">
         <v>49</v>
       </c>
       <c r="R3" t="s" s="4">
         <v>50</v>
       </c>
-      <c r="S3" t="s" s="5">
+      <c r="S3" t="s" s="4">
         <v>51</v>
       </c>
-      <c r="T3" t="s" s="5">
+      <c r="T3" t="s" s="8">
         <v>52</v>
       </c>
-      <c r="U3" t="s" s="6">
+      <c r="U3" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="V3" t="s" s="2">
+      <c r="V3" t="s" s="7">
         <v>54</v>
       </c>
       <c r="W3" t="s" s="4">
         <v>55</v>
       </c>
-      <c r="X3" t="s" s="5">
+      <c r="X3" t="s" s="4">
         <v>56</v>
       </c>
-      <c r="Y3" t="s" s="5">
-        <v>57</v>
-      </c>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="12">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
       <c r="C4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s" s="3">
         <v>58</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="E4" t="s" s="4">
         <v>59</v>
       </c>
-      <c r="E4" s="12">
+      <c r="F4" s="17">
         <v>90</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="G4" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="G4" t="s" s="2">
+      <c r="H4" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="H4" t="s" s="2">
+      <c r="I4" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="I4" t="s" s="2">
+      <c r="J4" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="J4" t="s" s="2">
+      <c r="K4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" s="18">
+        <v>4</v>
+      </c>
+      <c r="N4" s="19">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s" s="4">
         <v>66</v>
       </c>
-      <c r="M4" s="13">
-        <v>4</v>
-      </c>
-      <c r="N4" s="14">
-        <v>2</v>
-      </c>
-      <c r="O4" t="s" s="5">
+      <c r="P4" t="s" s="4">
         <v>67</v>
       </c>
-      <c r="P4" t="s" s="5">
+      <c r="Q4" s="20">
+        <v>1</v>
+      </c>
+      <c r="R4" s="20">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="Q4" s="15">
-        <v>11</v>
-      </c>
-      <c r="R4" s="16">
+      <c r="T4" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="U4" t="s" s="21">
+        <v>69</v>
+      </c>
+      <c r="V4" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="W4" s="20">
         <v>1</v>
       </c>
-      <c r="S4" s="16">
-        <v>1</v>
-      </c>
-      <c r="T4" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="U4" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="V4" t="s" s="17">
-        <v>70</v>
-      </c>
-      <c r="W4" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="X4" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="16">
+      <c r="X4" s="20">
         <v>999</v>
       </c>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
     </row>
     <row r="5" ht="19" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="D5" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s" s="5">
         <v>72</v>
       </c>
-      <c r="D5" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s" s="2">
+      <c r="G5" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="F5" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="G5" t="s" s="2">
+      <c r="I5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="J5" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="M5" s="18">
+        <v>1</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s" s="4">
         <v>76</v>
       </c>
-      <c r="J5" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s" s="2">
+      <c r="P5" t="s" s="4">
         <v>77</v>
       </c>
-      <c r="M5" s="13">
+      <c r="Q5" s="20">
         <v>1</v>
       </c>
-      <c r="N5" s="14">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s" s="5">
+      <c r="R5" s="20">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="T5" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="U5" t="s" s="4">
         <v>78</v>
       </c>
-      <c r="P5" t="s" s="5">
-        <v>79</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>22</v>
-      </c>
-      <c r="R5" s="16">
-        <v>1</v>
-      </c>
-      <c r="S5" s="16">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="U5" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="V5" t="s" s="5">
-        <v>80</v>
-      </c>
-      <c r="W5" s="16">
+      <c r="V5" s="20">
         <v>0.7</v>
       </c>
-      <c r="X5" s="16">
+      <c r="W5" s="20">
         <v>2</v>
       </c>
-      <c r="Y5" s="16">
+      <c r="X5" s="20">
         <v>999</v>
       </c>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="18">
+      <c r="A6" t="s" s="22">
         <v>33</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="23">
         <v>3</v>
       </c>
-      <c r="C6" t="s" s="20">
+      <c r="C6" t="s" s="24">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s" s="27">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s" s="22">
         <v>81</v>
       </c>
-      <c r="D6" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="E6" s="21">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="G6" t="s" s="22">
+      <c r="J6" t="s" s="22">
         <v>82</v>
       </c>
-      <c r="H6" s="19">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s" s="18">
+      <c r="K6" t="s" s="22">
         <v>83</v>
       </c>
-      <c r="J6" t="s" s="18">
+      <c r="L6" t="s" s="22">
         <v>84</v>
       </c>
-      <c r="K6" t="s" s="18">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s" s="18">
-        <v>86</v>
-      </c>
-      <c r="M6" s="15">
+      <c r="M6" s="28">
         <v>5</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="20">
         <v>0</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
     </row>
     <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
     </row>
     <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
     </row>
     <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
     </row>
     <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
     </row>
     <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
     </row>
     <row r="17" ht="13.8" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="29"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="35"/>
     </row>
     <row r="18" ht="13.8" customHeight="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="32"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="38"/>
     </row>
     <row r="19" ht="13.8" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="32"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="38"/>
     </row>
     <row r="20" ht="13.8" customHeight="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="32"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="38"/>
     </row>
     <row r="21" ht="13.8" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="35"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MakeAGame/LubanTool/GameConfig/Datas/Character.xlsx
+++ b/MakeAGame/LubanTool/GameConfig/Datas/Character.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>##var</t>
   </si>
@@ -163,13 +163,13 @@
     <t>棋子宽</t>
   </si>
   <si>
-    <t>棋子长</t>
+    <t>棋子高</t>
   </si>
   <si>
     <t>可移动方向</t>
   </si>
   <si>
-    <t>攻速</t>
+    <t>攻速（次/每秒）</t>
   </si>
   <si>
     <t>攻速加成</t>
@@ -266,6 +266,114 @@
   </si>
   <si>
     <t>Spirit,2</t>
+  </si>
+  <si>
+    <t>5,21</t>
+  </si>
+  <si>
+    <t>31,32</t>
+  </si>
+  <si>
+    <t>Spirit,0.02</t>
+  </si>
+  <si>
+    <t>D级员工</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Total,-0.04</t>
+  </si>
+  <si>
+    <t>对3*3的格子造成15点伤害。</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Stamina,2</t>
+  </si>
+  <si>
+    <t>C级员工</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Total,-0.05</t>
+  </si>
+  <si>
+    <t>对3*3的格子造成20点伤害，25%的概率获得一张D级员工。</t>
+  </si>
+  <si>
+    <t>B级员工</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Total,-0.06</t>
+  </si>
+  <si>
+    <t>对4*4的格子造成25点伤害，20%的概率获得一张C级员工。</t>
+  </si>
+  <si>
+    <t>Stamina,3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>Charisma,0.01</t>
+  </si>
+  <si>
+    <t>A级员工</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Total,-0.07</t>
+  </si>
+  <si>
+    <t>对4*4的格子造成40点伤害，15%的概率获得一张B级员工。</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Stamina,4</t>
+  </si>
+  <si>
+    <t>6,7,8</t>
+  </si>
+  <si>
+    <t>Charisma,0.02</t>
+  </si>
+  <si>
+    <t>藤曼</t>
+  </si>
+  <si>
+    <t>使1*6格子内的敌人移动速度减半，持续3秒，随后这些格子时间流逝速率永久降低一个级别</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Spirit,10</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Left,Right</t>
+  </si>
+  <si>
+    <t>Charisma,0.1</t>
   </si>
 </sst>
 </file>
@@ -316,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -416,6 +524,231 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -582,7 +915,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -613,100 +946,160 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1792,7 +2185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1908,76 +2301,76 @@
       <c r="A2" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="D2" t="s" s="10">
+      <c r="D2" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="E2" t="s" s="11">
+      <c r="E2" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="G2" t="s" s="12">
+      <c r="G2" t="s" s="14">
         <v>29</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="H2" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="I2" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="J2" t="s" s="12">
+      <c r="J2" t="s" s="14">
         <v>29</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="K2" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="L2" t="s" s="12">
+      <c r="L2" t="s" s="14">
         <v>29</v>
       </c>
-      <c r="M2" t="s" s="6">
+      <c r="M2" t="s" s="15">
         <v>30</v>
       </c>
-      <c r="N2" t="s" s="7">
+      <c r="N2" t="s" s="16">
         <v>30</v>
       </c>
-      <c r="O2" t="s" s="13">
+      <c r="O2" t="s" s="17">
         <v>31</v>
       </c>
-      <c r="P2" t="s" s="14">
+      <c r="P2" t="s" s="18">
         <v>31</v>
       </c>
-      <c r="Q2" t="s" s="7">
+      <c r="Q2" t="s" s="16">
         <v>25</v>
       </c>
-      <c r="R2" t="s" s="4">
+      <c r="R2" t="s" s="19">
         <v>25</v>
       </c>
-      <c r="S2" t="s" s="15">
+      <c r="S2" t="s" s="20">
         <v>32</v>
       </c>
-      <c r="T2" t="s" s="8">
+      <c r="T2" t="s" s="21">
         <v>30</v>
       </c>
-      <c r="U2" t="s" s="12">
+      <c r="U2" t="s" s="14">
         <v>29</v>
       </c>
-      <c r="V2" t="s" s="7">
+      <c r="V2" t="s" s="16">
         <v>30</v>
       </c>
-      <c r="W2" t="s" s="4">
+      <c r="W2" t="s" s="19">
         <v>25</v>
       </c>
-      <c r="X2" t="s" s="4">
+      <c r="X2" t="s" s="19">
         <v>25</v>
       </c>
-      <c r="Y2" s="9"/>
+      <c r="Y2" s="22"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
@@ -1987,81 +2380,81 @@
       <c r="AF2" s="9"/>
       <c r="AG2" s="9"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" ht="23.85" customHeight="1">
+      <c r="A3" t="s" s="23">
         <v>33</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="24">
         <v>34</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="24">
         <v>35</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="24">
         <v>36</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="25">
         <v>37</v>
       </c>
-      <c r="F3" t="s" s="5">
+      <c r="F3" t="s" s="24">
         <v>38</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="24">
         <v>39</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="24">
         <v>40</v>
       </c>
-      <c r="I3" t="s" s="2">
+      <c r="I3" t="s" s="24">
         <v>41</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="J3" t="s" s="24">
         <v>42</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="K3" t="s" s="24">
         <v>43</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="L3" t="s" s="24">
         <v>44</v>
       </c>
-      <c r="M3" t="s" s="6">
+      <c r="M3" t="s" s="25">
         <v>45</v>
       </c>
-      <c r="N3" t="s" s="7">
+      <c r="N3" t="s" s="25">
         <v>46</v>
       </c>
-      <c r="O3" t="s" s="4">
+      <c r="O3" t="s" s="25">
         <v>47</v>
       </c>
-      <c r="P3" t="s" s="8">
+      <c r="P3" t="s" s="25">
         <v>48</v>
       </c>
-      <c r="Q3" t="s" s="7">
+      <c r="Q3" t="s" s="25">
         <v>49</v>
       </c>
-      <c r="R3" t="s" s="4">
+      <c r="R3" t="s" s="25">
         <v>50</v>
       </c>
-      <c r="S3" t="s" s="4">
+      <c r="S3" t="s" s="25">
         <v>51</v>
       </c>
-      <c r="T3" t="s" s="8">
+      <c r="T3" t="s" s="25">
         <v>52</v>
       </c>
-      <c r="U3" t="s" s="2">
+      <c r="U3" t="s" s="24">
         <v>53</v>
       </c>
-      <c r="V3" t="s" s="7">
+      <c r="V3" t="s" s="25">
         <v>54</v>
       </c>
-      <c r="W3" t="s" s="4">
+      <c r="W3" t="s" s="25">
         <v>55</v>
       </c>
-      <c r="X3" t="s" s="4">
+      <c r="X3" t="s" s="26">
         <v>56</v>
       </c>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="28"/>
       <c r="AA3" s="9"/>
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
@@ -2072,76 +2465,76 @@
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="16">
+      <c r="B4" s="29">
         <v>1</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" t="s" s="30">
         <v>57</v>
       </c>
-      <c r="D4" t="s" s="3">
+      <c r="D4" t="s" s="31">
         <v>58</v>
       </c>
-      <c r="E4" t="s" s="4">
+      <c r="E4" t="s" s="32">
         <v>59</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="33">
         <v>90</v>
       </c>
-      <c r="G4" t="s" s="2">
+      <c r="G4" t="s" s="30">
         <v>60</v>
       </c>
-      <c r="H4" t="s" s="2">
+      <c r="H4" t="s" s="30">
         <v>61</v>
       </c>
-      <c r="I4" t="s" s="2">
+      <c r="I4" t="s" s="30">
         <v>62</v>
       </c>
-      <c r="J4" t="s" s="2">
+      <c r="J4" t="s" s="30">
         <v>63</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="K4" t="s" s="30">
         <v>64</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="L4" t="s" s="30">
         <v>65</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="34">
         <v>4</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="35">
         <v>2</v>
       </c>
-      <c r="O4" t="s" s="4">
+      <c r="O4" t="s" s="32">
         <v>66</v>
       </c>
-      <c r="P4" t="s" s="4">
+      <c r="P4" t="s" s="32">
         <v>67</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="36">
         <v>1</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="36">
         <v>1</v>
       </c>
-      <c r="S4" t="s" s="4">
+      <c r="S4" t="s" s="32">
         <v>68</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="36">
         <v>0.8</v>
       </c>
-      <c r="U4" t="s" s="21">
+      <c r="U4" t="s" s="32">
         <v>69</v>
       </c>
-      <c r="V4" s="20">
+      <c r="V4" s="36">
         <v>0.9</v>
       </c>
-      <c r="W4" s="20">
+      <c r="W4" s="36">
         <v>1</v>
       </c>
-      <c r="X4" s="20">
+      <c r="X4" s="36">
         <v>999</v>
       </c>
-      <c r="Y4" s="9"/>
+      <c r="Y4" s="37"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
@@ -2151,7 +2544,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
     </row>
-    <row r="5" ht="19" customHeight="1">
+    <row r="5" ht="16" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" t="s" s="2">
         <v>70</v>
@@ -2180,16 +2573,16 @@
       <c r="J5" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="38">
         <v>0</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="39">
         <v>1</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="40">
         <v>0</v>
       </c>
       <c r="O5" t="s" s="4">
@@ -2198,28 +2591,28 @@
       <c r="P5" t="s" s="4">
         <v>77</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="41">
         <v>1</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="41">
         <v>1</v>
       </c>
       <c r="S5" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="41">
         <v>0.8</v>
       </c>
       <c r="U5" t="s" s="4">
         <v>78</v>
       </c>
-      <c r="V5" s="20">
+      <c r="V5" s="41">
         <v>0.7</v>
       </c>
-      <c r="W5" s="20">
+      <c r="W5" s="41">
         <v>2</v>
       </c>
-      <c r="X5" s="20">
+      <c r="X5" s="41">
         <v>999</v>
       </c>
       <c r="Y5" s="9"/>
@@ -2233,56 +2626,76 @@
       <c r="AG5" s="9"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="22">
-        <v>33</v>
-      </c>
-      <c r="B6" s="23">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43">
         <v>3</v>
       </c>
-      <c r="C6" t="s" s="24">
+      <c r="C6" t="s" s="44">
         <v>79</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26">
+      <c r="E6" t="s" s="45">
+        <v>59</v>
+      </c>
+      <c r="F6" s="46">
         <v>90</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="H6" t="s" s="27">
+      <c r="H6" t="s" s="47">
         <v>80</v>
       </c>
-      <c r="I6" t="s" s="22">
+      <c r="I6" t="s" s="42">
         <v>81</v>
       </c>
-      <c r="J6" t="s" s="22">
+      <c r="J6" t="s" s="42">
         <v>82</v>
       </c>
-      <c r="K6" t="s" s="22">
+      <c r="K6" t="s" s="42">
         <v>83</v>
       </c>
-      <c r="L6" t="s" s="22">
+      <c r="L6" t="s" s="42">
         <v>84</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="48">
         <v>5</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="41">
         <v>0</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
+      <c r="O6" t="s" s="4">
+        <v>85</v>
+      </c>
+      <c r="P6" t="s" s="4">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="41">
+        <v>1</v>
+      </c>
+      <c r="R6" s="41">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="T6" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="U6" t="s" s="4">
+        <v>87</v>
+      </c>
+      <c r="V6" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="W6" s="41">
+        <v>2</v>
+      </c>
+      <c r="X6" s="41">
+        <v>999</v>
+      </c>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
@@ -2294,30 +2707,72 @@
       <c r="AG6" s="9"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="50">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s" s="51">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s" s="42">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s" s="51">
+        <v>59</v>
+      </c>
+      <c r="F7" s="50">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s" s="42">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s" s="51">
+        <v>91</v>
+      </c>
+      <c r="I7" t="s" s="51">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s" s="51">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s" s="51">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s" s="51">
+        <v>60</v>
+      </c>
+      <c r="M7" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
+      <c r="Q7" s="41">
+        <v>1</v>
+      </c>
+      <c r="R7" s="41">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="T7" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="U7" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="V7" s="41">
+        <v>0.6</v>
+      </c>
+      <c r="W7" s="41">
+        <v>1</v>
+      </c>
+      <c r="X7" s="41">
+        <v>999</v>
+      </c>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
@@ -2329,30 +2784,74 @@
       <c r="AG7" s="9"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="50">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s" s="51">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s" s="51">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s" s="51">
+        <v>59</v>
+      </c>
+      <c r="F8" s="50">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s" s="51">
+        <v>96</v>
+      </c>
+      <c r="H8" t="s" s="51">
+        <v>97</v>
+      </c>
+      <c r="I8" t="s" s="51">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s" s="51">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s" s="51">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s" s="51">
+        <v>60</v>
+      </c>
+      <c r="M8" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="N8" s="41">
+        <v>1</v>
+      </c>
+      <c r="O8" s="41">
+        <v>6</v>
+      </c>
       <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
+      <c r="Q8" s="41">
+        <v>1</v>
+      </c>
+      <c r="R8" s="41">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="T8" s="41">
+        <v>0.6</v>
+      </c>
+      <c r="U8" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="V8" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="W8" s="41">
+        <v>1</v>
+      </c>
+      <c r="X8" s="41">
+        <v>999</v>
+      </c>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
@@ -2364,30 +2863,74 @@
       <c r="AG8" s="9"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="50">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="51">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s" s="51">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s" s="51">
+        <v>59</v>
+      </c>
+      <c r="F9" s="50">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s" s="51">
+        <v>100</v>
+      </c>
+      <c r="H9" t="s" s="51">
+        <v>101</v>
+      </c>
+      <c r="I9" t="s" s="51">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s" s="51">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s" s="51">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s" s="51">
+        <v>60</v>
+      </c>
+      <c r="M9" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="N9" s="41">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s" s="4">
+        <v>104</v>
+      </c>
       <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
+      <c r="Q9" s="41">
+        <v>1</v>
+      </c>
+      <c r="R9" s="41">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="T9" s="41">
+        <v>0.6</v>
+      </c>
+      <c r="U9" t="s" s="4">
+        <v>105</v>
+      </c>
+      <c r="V9" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="W9" s="41">
+        <v>1</v>
+      </c>
+      <c r="X9" s="41">
+        <v>999</v>
+      </c>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
@@ -2399,30 +2942,74 @@
       <c r="AG9" s="9"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s" s="51">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s" s="51">
+        <v>107</v>
+      </c>
+      <c r="E10" t="s" s="51">
+        <v>59</v>
+      </c>
+      <c r="F10" s="50">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s" s="51">
+        <v>108</v>
+      </c>
+      <c r="H10" t="s" s="51">
+        <v>109</v>
+      </c>
+      <c r="I10" t="s" s="51">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s" s="51">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s" s="51">
+        <v>64</v>
+      </c>
+      <c r="L10" t="s" s="51">
+        <v>60</v>
+      </c>
+      <c r="M10" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="N10" s="41">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s" s="4">
+        <v>112</v>
+      </c>
       <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
+      <c r="Q10" s="41">
+        <v>1</v>
+      </c>
+      <c r="R10" s="41">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="T10" s="41">
+        <v>0.6</v>
+      </c>
+      <c r="U10" t="s" s="4">
+        <v>113</v>
+      </c>
+      <c r="V10" s="41">
+        <v>0.9</v>
+      </c>
+      <c r="W10" s="41">
+        <v>1</v>
+      </c>
+      <c r="X10" s="41">
+        <v>999</v>
+      </c>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
@@ -2434,18 +3021,18 @@
       <c r="AG10" s="9"/>
     </row>
     <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="29"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="49"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -2469,18 +3056,18 @@
       <c r="AG11" s="9"/>
     </row>
     <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="29"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="49"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -2504,18 +3091,18 @@
       <c r="AG12" s="9"/>
     </row>
     <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="29"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="49"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -2539,18 +3126,18 @@
       <c r="AG13" s="9"/>
     </row>
     <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="29"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="49"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -2574,18 +3161,18 @@
       <c r="AG14" s="9"/>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="29"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="49"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
@@ -2609,18 +3196,18 @@
       <c r="AG15" s="9"/>
     </row>
     <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="29"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="49"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -2643,180 +3230,259 @@
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
     </row>
-    <row r="17" ht="13.8" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="35"/>
+    <row r="17" ht="16" customHeight="1">
+      <c r="A17" s="49"/>
+      <c r="B17" s="50">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s" s="51">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s" s="51">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s" s="51">
+        <v>59</v>
+      </c>
+      <c r="F17" s="50">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s" s="51">
+        <v>60</v>
+      </c>
+      <c r="H17" t="s" s="51">
+        <v>115</v>
+      </c>
+      <c r="I17" t="s" s="51">
+        <v>116</v>
+      </c>
+      <c r="J17" t="s" s="51">
+        <v>117</v>
+      </c>
+      <c r="K17" t="s" s="51">
+        <v>118</v>
+      </c>
+      <c r="L17" t="s" s="51">
+        <v>60</v>
+      </c>
+      <c r="M17" s="41">
+        <v>6</v>
+      </c>
+      <c r="N17" s="41">
+        <v>2</v>
+      </c>
+      <c r="O17" s="9"/>
+      <c r="P17" s="41">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="41">
+        <v>2</v>
+      </c>
+      <c r="R17" s="41">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s" s="4">
+        <v>119</v>
+      </c>
+      <c r="T17" s="41">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s" s="4">
+        <v>120</v>
+      </c>
+      <c r="V17" s="41">
+        <v>1</v>
+      </c>
+      <c r="W17" s="41">
+        <v>2</v>
+      </c>
+      <c r="X17" s="41">
+        <v>999</v>
+      </c>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
     </row>
     <row r="18" ht="13.8" customHeight="1">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="38"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="55"/>
     </row>
     <row r="19" ht="13.8" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="38"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="58"/>
     </row>
     <row r="20" ht="13.8" customHeight="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="38"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="58"/>
     </row>
     <row r="21" ht="13.8" customHeight="1">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="40"/>
-      <c r="AF21" s="40"/>
-      <c r="AG21" s="41"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="58"/>
+    </row>
+    <row r="22" ht="13.8" customHeight="1">
+      <c r="A22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="60"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="60"/>
+      <c r="AG22" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MakeAGame/LubanTool/GameConfig/Datas/Character.xlsx
+++ b/MakeAGame/LubanTool/GameConfig/Datas/Character.xlsx
@@ -169,7 +169,7 @@
     <t>可移动方向</t>
   </si>
   <si>
-    <t>攻速（次/每秒）</t>
+    <t>攻速（秒/每次）</t>
   </si>
   <si>
     <t>攻速加成</t>
@@ -383,7 +383,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -404,11 +404,6 @@
       <color indexed="12"/>
       <name val="等线"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="13"/>
-      <name val="等线"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -915,7 +910,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -952,7 +947,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -974,9 +969,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1122,7 +1114,6 @@
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffbd6427"/>
       <rgbColor rgb="ffbd6427"/>
     </indexedColors>
   </colors>
@@ -2208,7 +2199,7 @@
     <col min="16" max="16" width="18.3516" style="1" customWidth="1"/>
     <col min="17" max="18" width="9" style="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5" style="1" customWidth="1"/>
     <col min="21" max="21" width="18.8516" style="1" customWidth="1"/>
     <col min="22" max="33" width="9" style="1" customWidth="1"/>
     <col min="34" max="16384" width="9" style="1" customWidth="1"/>
@@ -2352,10 +2343,10 @@
       <c r="R2" t="s" s="19">
         <v>25</v>
       </c>
-      <c r="S2" t="s" s="20">
+      <c r="S2" t="s" s="12">
         <v>32</v>
       </c>
-      <c r="T2" t="s" s="21">
+      <c r="T2" t="s" s="20">
         <v>30</v>
       </c>
       <c r="U2" t="s" s="14">
@@ -2370,7 +2361,7 @@
       <c r="X2" t="s" s="19">
         <v>25</v>
       </c>
-      <c r="Y2" s="22"/>
+      <c r="Y2" s="21"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
@@ -2381,80 +2372,80 @@
       <c r="AG2" s="9"/>
     </row>
     <row r="3" ht="23.85" customHeight="1">
-      <c r="A3" t="s" s="23">
+      <c r="A3" t="s" s="22">
         <v>33</v>
       </c>
-      <c r="B3" t="s" s="24">
+      <c r="B3" t="s" s="23">
         <v>34</v>
       </c>
-      <c r="C3" t="s" s="24">
+      <c r="C3" t="s" s="23">
         <v>35</v>
       </c>
-      <c r="D3" t="s" s="24">
+      <c r="D3" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="E3" t="s" s="25">
+      <c r="E3" t="s" s="24">
         <v>37</v>
       </c>
-      <c r="F3" t="s" s="24">
+      <c r="F3" t="s" s="23">
         <v>38</v>
       </c>
-      <c r="G3" t="s" s="24">
+      <c r="G3" t="s" s="23">
         <v>39</v>
       </c>
-      <c r="H3" t="s" s="24">
+      <c r="H3" t="s" s="23">
         <v>40</v>
       </c>
-      <c r="I3" t="s" s="24">
+      <c r="I3" t="s" s="23">
         <v>41</v>
       </c>
-      <c r="J3" t="s" s="24">
+      <c r="J3" t="s" s="23">
         <v>42</v>
       </c>
-      <c r="K3" t="s" s="24">
+      <c r="K3" t="s" s="23">
         <v>43</v>
       </c>
-      <c r="L3" t="s" s="24">
+      <c r="L3" t="s" s="23">
         <v>44</v>
       </c>
-      <c r="M3" t="s" s="25">
+      <c r="M3" t="s" s="24">
         <v>45</v>
       </c>
-      <c r="N3" t="s" s="25">
+      <c r="N3" t="s" s="24">
         <v>46</v>
       </c>
-      <c r="O3" t="s" s="25">
+      <c r="O3" t="s" s="24">
         <v>47</v>
       </c>
-      <c r="P3" t="s" s="25">
+      <c r="P3" t="s" s="24">
         <v>48</v>
       </c>
-      <c r="Q3" t="s" s="25">
+      <c r="Q3" t="s" s="24">
         <v>49</v>
       </c>
-      <c r="R3" t="s" s="25">
+      <c r="R3" t="s" s="24">
         <v>50</v>
       </c>
-      <c r="S3" t="s" s="25">
+      <c r="S3" t="s" s="24">
         <v>51</v>
       </c>
-      <c r="T3" t="s" s="25">
+      <c r="T3" t="s" s="24">
         <v>52</v>
       </c>
-      <c r="U3" t="s" s="24">
+      <c r="U3" t="s" s="23">
         <v>53</v>
       </c>
-      <c r="V3" t="s" s="25">
+      <c r="V3" t="s" s="24">
         <v>54</v>
       </c>
-      <c r="W3" t="s" s="25">
+      <c r="W3" t="s" s="24">
         <v>55</v>
       </c>
-      <c r="X3" t="s" s="26">
+      <c r="X3" t="s" s="25">
         <v>56</v>
       </c>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="28"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="27"/>
       <c r="AA3" s="9"/>
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
@@ -2465,76 +2456,76 @@
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>1</v>
       </c>
-      <c r="C4" t="s" s="30">
+      <c r="C4" t="s" s="29">
         <v>57</v>
       </c>
-      <c r="D4" t="s" s="31">
+      <c r="D4" t="s" s="30">
         <v>58</v>
       </c>
-      <c r="E4" t="s" s="32">
+      <c r="E4" t="s" s="31">
         <v>59</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <v>90</v>
       </c>
-      <c r="G4" t="s" s="30">
+      <c r="G4" t="s" s="29">
         <v>60</v>
       </c>
-      <c r="H4" t="s" s="30">
+      <c r="H4" t="s" s="29">
         <v>61</v>
       </c>
-      <c r="I4" t="s" s="30">
+      <c r="I4" t="s" s="29">
         <v>62</v>
       </c>
-      <c r="J4" t="s" s="30">
+      <c r="J4" t="s" s="29">
         <v>63</v>
       </c>
-      <c r="K4" t="s" s="30">
+      <c r="K4" t="s" s="29">
         <v>64</v>
       </c>
-      <c r="L4" t="s" s="30">
+      <c r="L4" t="s" s="29">
         <v>65</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="33">
         <v>4</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4" s="34">
         <v>2</v>
       </c>
-      <c r="O4" t="s" s="32">
+      <c r="O4" t="s" s="31">
         <v>66</v>
       </c>
-      <c r="P4" t="s" s="32">
+      <c r="P4" t="s" s="31">
         <v>67</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="35">
         <v>1</v>
       </c>
-      <c r="R4" s="36">
+      <c r="R4" s="35">
         <v>1</v>
       </c>
-      <c r="S4" t="s" s="32">
+      <c r="S4" t="s" s="31">
         <v>68</v>
       </c>
-      <c r="T4" s="36">
-        <v>0.8</v>
-      </c>
-      <c r="U4" t="s" s="32">
+      <c r="T4" s="35">
+        <v>1.25</v>
+      </c>
+      <c r="U4" t="s" s="31">
         <v>69</v>
       </c>
-      <c r="V4" s="36">
+      <c r="V4" s="35">
         <v>0.9</v>
       </c>
-      <c r="W4" s="36">
+      <c r="W4" s="35">
         <v>1</v>
       </c>
-      <c r="X4" s="36">
+      <c r="X4" s="35">
         <v>999</v>
       </c>
-      <c r="Y4" s="37"/>
+      <c r="Y4" s="36"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
@@ -2573,16 +2564,16 @@
       <c r="J5" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="37">
         <v>0</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="M5" s="39">
+      <c r="M5" s="38">
         <v>1</v>
       </c>
-      <c r="N5" s="40">
+      <c r="N5" s="39">
         <v>0</v>
       </c>
       <c r="O5" t="s" s="4">
@@ -2591,28 +2582,28 @@
       <c r="P5" t="s" s="4">
         <v>77</v>
       </c>
-      <c r="Q5" s="41">
+      <c r="Q5" s="40">
         <v>1</v>
       </c>
-      <c r="R5" s="41">
+      <c r="R5" s="40">
         <v>1</v>
       </c>
       <c r="S5" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="T5" s="41">
-        <v>0.8</v>
+      <c r="T5" s="40">
+        <v>1.25</v>
       </c>
       <c r="U5" t="s" s="4">
         <v>78</v>
       </c>
-      <c r="V5" s="41">
+      <c r="V5" s="40">
         <v>0.7</v>
       </c>
-      <c r="W5" s="41">
+      <c r="W5" s="40">
         <v>2</v>
       </c>
-      <c r="X5" s="41">
+      <c r="X5" s="40">
         <v>999</v>
       </c>
       <c r="Y5" s="9"/>
@@ -2626,44 +2617,44 @@
       <c r="AG5" s="9"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43">
+      <c r="A6" s="41"/>
+      <c r="B6" s="42">
         <v>3</v>
       </c>
-      <c r="C6" t="s" s="44">
+      <c r="C6" t="s" s="43">
         <v>79</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="E6" t="s" s="45">
+      <c r="E6" t="s" s="44">
         <v>59</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="45">
         <v>90</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="H6" t="s" s="47">
+      <c r="H6" t="s" s="46">
         <v>80</v>
       </c>
-      <c r="I6" t="s" s="42">
+      <c r="I6" t="s" s="41">
         <v>81</v>
       </c>
-      <c r="J6" t="s" s="42">
+      <c r="J6" t="s" s="41">
         <v>82</v>
       </c>
-      <c r="K6" t="s" s="42">
+      <c r="K6" t="s" s="41">
         <v>83</v>
       </c>
-      <c r="L6" t="s" s="42">
+      <c r="L6" t="s" s="41">
         <v>84</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="47">
         <v>5</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="40">
         <v>0</v>
       </c>
       <c r="O6" t="s" s="4">
@@ -2672,28 +2663,28 @@
       <c r="P6" t="s" s="4">
         <v>86</v>
       </c>
-      <c r="Q6" s="41">
+      <c r="Q6" s="40">
         <v>1</v>
       </c>
-      <c r="R6" s="41">
+      <c r="R6" s="40">
         <v>1</v>
       </c>
       <c r="S6" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="T6" s="41">
-        <v>0.8</v>
+      <c r="T6" s="40">
+        <v>1.25</v>
       </c>
       <c r="U6" t="s" s="4">
         <v>87</v>
       </c>
-      <c r="V6" s="41">
+      <c r="V6" s="40">
         <v>0.7</v>
       </c>
-      <c r="W6" s="41">
+      <c r="W6" s="40">
         <v>2</v>
       </c>
-      <c r="X6" s="41">
+      <c r="X6" s="40">
         <v>999</v>
       </c>
       <c r="Y6" s="9"/>
@@ -2707,70 +2698,70 @@
       <c r="AG6" s="9"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49">
         <v>4</v>
       </c>
-      <c r="C7" t="s" s="51">
+      <c r="C7" t="s" s="50">
         <v>88</v>
       </c>
-      <c r="D7" t="s" s="42">
+      <c r="D7" t="s" s="41">
         <v>89</v>
       </c>
-      <c r="E7" t="s" s="51">
+      <c r="E7" t="s" s="50">
         <v>59</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="49">
         <v>20</v>
       </c>
-      <c r="G7" t="s" s="42">
+      <c r="G7" t="s" s="41">
         <v>90</v>
       </c>
-      <c r="H7" t="s" s="51">
+      <c r="H7" t="s" s="50">
         <v>91</v>
       </c>
-      <c r="I7" t="s" s="51">
+      <c r="I7" t="s" s="50">
         <v>92</v>
       </c>
-      <c r="J7" t="s" s="51">
+      <c r="J7" t="s" s="50">
         <v>93</v>
       </c>
-      <c r="K7" t="s" s="51">
+      <c r="K7" t="s" s="50">
         <v>83</v>
       </c>
-      <c r="L7" t="s" s="51">
+      <c r="L7" t="s" s="50">
         <v>60</v>
       </c>
-      <c r="M7" s="41">
+      <c r="M7" s="40">
         <v>3.5</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="40">
         <v>0</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="41">
+      <c r="Q7" s="40">
         <v>1</v>
       </c>
-      <c r="R7" s="41">
+      <c r="R7" s="40">
         <v>1</v>
       </c>
       <c r="S7" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="T7" s="41">
-        <v>0.5</v>
+      <c r="T7" s="40">
+        <v>2</v>
       </c>
       <c r="U7" t="s" s="4">
         <v>60</v>
       </c>
-      <c r="V7" s="41">
+      <c r="V7" s="40">
         <v>0.6</v>
       </c>
-      <c r="W7" s="41">
+      <c r="W7" s="40">
         <v>1</v>
       </c>
-      <c r="X7" s="41">
+      <c r="X7" s="40">
         <v>999</v>
       </c>
       <c r="Y7" s="9"/>
@@ -2784,72 +2775,72 @@
       <c r="AG7" s="9"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50">
+      <c r="A8" s="48"/>
+      <c r="B8" s="49">
         <v>5</v>
       </c>
-      <c r="C8" t="s" s="51">
+      <c r="C8" t="s" s="50">
         <v>94</v>
       </c>
-      <c r="D8" t="s" s="51">
+      <c r="D8" t="s" s="50">
         <v>95</v>
       </c>
-      <c r="E8" t="s" s="51">
+      <c r="E8" t="s" s="50">
         <v>59</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="49">
         <v>20</v>
       </c>
-      <c r="G8" t="s" s="51">
+      <c r="G8" t="s" s="50">
         <v>96</v>
       </c>
-      <c r="H8" t="s" s="51">
+      <c r="H8" t="s" s="50">
         <v>97</v>
       </c>
-      <c r="I8" t="s" s="51">
+      <c r="I8" t="s" s="50">
         <v>74</v>
       </c>
-      <c r="J8" t="s" s="51">
+      <c r="J8" t="s" s="50">
         <v>93</v>
       </c>
-      <c r="K8" t="s" s="51">
+      <c r="K8" t="s" s="50">
         <v>83</v>
       </c>
-      <c r="L8" t="s" s="51">
+      <c r="L8" t="s" s="50">
         <v>60</v>
       </c>
-      <c r="M8" s="41">
+      <c r="M8" s="40">
         <v>3.5</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="40">
         <v>1</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="40">
         <v>6</v>
       </c>
       <c r="P8" s="9"/>
-      <c r="Q8" s="41">
+      <c r="Q8" s="40">
         <v>1</v>
       </c>
-      <c r="R8" s="41">
+      <c r="R8" s="40">
         <v>1</v>
       </c>
       <c r="S8" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="T8" s="41">
-        <v>0.6</v>
+      <c r="T8" s="40">
+        <v>1.67</v>
       </c>
       <c r="U8" t="s" s="4">
         <v>60</v>
       </c>
-      <c r="V8" s="41">
+      <c r="V8" s="40">
         <v>0.7</v>
       </c>
-      <c r="W8" s="41">
+      <c r="W8" s="40">
         <v>1</v>
       </c>
-      <c r="X8" s="41">
+      <c r="X8" s="40">
         <v>999</v>
       </c>
       <c r="Y8" s="9"/>
@@ -2863,72 +2854,72 @@
       <c r="AG8" s="9"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50">
+      <c r="A9" s="48"/>
+      <c r="B9" s="49">
         <v>6</v>
       </c>
-      <c r="C9" t="s" s="51">
+      <c r="C9" t="s" s="50">
         <v>98</v>
       </c>
-      <c r="D9" t="s" s="51">
+      <c r="D9" t="s" s="50">
         <v>99</v>
       </c>
-      <c r="E9" t="s" s="51">
+      <c r="E9" t="s" s="50">
         <v>59</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="49">
         <v>20</v>
       </c>
-      <c r="G9" t="s" s="51">
+      <c r="G9" t="s" s="50">
         <v>100</v>
       </c>
-      <c r="H9" t="s" s="51">
+      <c r="H9" t="s" s="50">
         <v>101</v>
       </c>
-      <c r="I9" t="s" s="51">
+      <c r="I9" t="s" s="50">
         <v>81</v>
       </c>
-      <c r="J9" t="s" s="51">
+      <c r="J9" t="s" s="50">
         <v>102</v>
       </c>
-      <c r="K9" t="s" s="51">
+      <c r="K9" t="s" s="50">
         <v>103</v>
       </c>
-      <c r="L9" t="s" s="51">
+      <c r="L9" t="s" s="50">
         <v>60</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="40">
         <v>2.5</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="40">
         <v>2</v>
       </c>
       <c r="O9" t="s" s="4">
         <v>104</v>
       </c>
       <c r="P9" s="9"/>
-      <c r="Q9" s="41">
+      <c r="Q9" s="40">
         <v>1</v>
       </c>
-      <c r="R9" s="41">
+      <c r="R9" s="40">
         <v>1</v>
       </c>
       <c r="S9" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="T9" s="41">
-        <v>0.6</v>
+      <c r="T9" s="40">
+        <v>1.67</v>
       </c>
       <c r="U9" t="s" s="4">
         <v>105</v>
       </c>
-      <c r="V9" s="41">
+      <c r="V9" s="40">
         <v>0.8</v>
       </c>
-      <c r="W9" s="41">
+      <c r="W9" s="40">
         <v>1</v>
       </c>
-      <c r="X9" s="41">
+      <c r="X9" s="40">
         <v>999</v>
       </c>
       <c r="Y9" s="9"/>
@@ -2942,72 +2933,72 @@
       <c r="AG9" s="9"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50">
+      <c r="A10" s="48"/>
+      <c r="B10" s="49">
         <v>7</v>
       </c>
-      <c r="C10" t="s" s="51">
+      <c r="C10" t="s" s="50">
         <v>106</v>
       </c>
-      <c r="D10" t="s" s="51">
+      <c r="D10" t="s" s="50">
         <v>107</v>
       </c>
-      <c r="E10" t="s" s="51">
+      <c r="E10" t="s" s="50">
         <v>59</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="49">
         <v>20</v>
       </c>
-      <c r="G10" t="s" s="51">
+      <c r="G10" t="s" s="50">
         <v>108</v>
       </c>
-      <c r="H10" t="s" s="51">
+      <c r="H10" t="s" s="50">
         <v>109</v>
       </c>
-      <c r="I10" t="s" s="51">
+      <c r="I10" t="s" s="50">
         <v>110</v>
       </c>
-      <c r="J10" t="s" s="51">
+      <c r="J10" t="s" s="50">
         <v>111</v>
       </c>
-      <c r="K10" t="s" s="51">
+      <c r="K10" t="s" s="50">
         <v>64</v>
       </c>
-      <c r="L10" t="s" s="51">
+      <c r="L10" t="s" s="50">
         <v>60</v>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="40">
         <v>2.5</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="40">
         <v>2</v>
       </c>
       <c r="O10" t="s" s="4">
         <v>112</v>
       </c>
       <c r="P10" s="9"/>
-      <c r="Q10" s="41">
+      <c r="Q10" s="40">
         <v>1</v>
       </c>
-      <c r="R10" s="41">
+      <c r="R10" s="40">
         <v>1</v>
       </c>
       <c r="S10" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="T10" s="41">
-        <v>0.6</v>
+      <c r="T10" s="40">
+        <v>1.67</v>
       </c>
       <c r="U10" t="s" s="4">
         <v>113</v>
       </c>
-      <c r="V10" s="41">
+      <c r="V10" s="40">
         <v>0.9</v>
       </c>
-      <c r="W10" s="41">
+      <c r="W10" s="40">
         <v>1</v>
       </c>
-      <c r="X10" s="41">
+      <c r="X10" s="40">
         <v>999</v>
       </c>
       <c r="Y10" s="9"/>
@@ -3021,18 +3012,18 @@
       <c r="AG10" s="9"/>
     </row>
     <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="49"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="48"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -3056,18 +3047,18 @@
       <c r="AG11" s="9"/>
     </row>
     <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="49"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="48"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -3091,18 +3082,18 @@
       <c r="AG12" s="9"/>
     </row>
     <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="49"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="48"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -3126,18 +3117,18 @@
       <c r="AG13" s="9"/>
     </row>
     <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="49"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="48"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -3161,18 +3152,18 @@
       <c r="AG14" s="9"/>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="49"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="48"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
@@ -3196,18 +3187,18 @@
       <c r="AG15" s="9"/>
     </row>
     <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="49"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="48"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -3231,72 +3222,72 @@
       <c r="AG16" s="9"/>
     </row>
     <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50">
+      <c r="A17" s="48"/>
+      <c r="B17" s="49">
         <v>14</v>
       </c>
-      <c r="C17" t="s" s="51">
+      <c r="C17" t="s" s="50">
         <v>114</v>
       </c>
-      <c r="D17" t="s" s="51">
+      <c r="D17" t="s" s="50">
         <v>89</v>
       </c>
-      <c r="E17" t="s" s="51">
+      <c r="E17" t="s" s="50">
         <v>59</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="49">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="51">
+      <c r="G17" t="s" s="50">
         <v>60</v>
       </c>
-      <c r="H17" t="s" s="51">
+      <c r="H17" t="s" s="50">
         <v>115</v>
       </c>
-      <c r="I17" t="s" s="51">
+      <c r="I17" t="s" s="50">
         <v>116</v>
       </c>
-      <c r="J17" t="s" s="51">
+      <c r="J17" t="s" s="50">
         <v>117</v>
       </c>
-      <c r="K17" t="s" s="51">
+      <c r="K17" t="s" s="50">
         <v>118</v>
       </c>
-      <c r="L17" t="s" s="51">
+      <c r="L17" t="s" s="50">
         <v>60</v>
       </c>
-      <c r="M17" s="41">
+      <c r="M17" s="40">
         <v>6</v>
       </c>
-      <c r="N17" s="41">
+      <c r="N17" s="40">
         <v>2</v>
       </c>
       <c r="O17" s="9"/>
-      <c r="P17" s="41">
+      <c r="P17" s="40">
         <v>34</v>
       </c>
-      <c r="Q17" s="41">
+      <c r="Q17" s="40">
         <v>2</v>
       </c>
-      <c r="R17" s="41">
+      <c r="R17" s="40">
         <v>1</v>
       </c>
       <c r="S17" t="s" s="4">
         <v>119</v>
       </c>
-      <c r="T17" s="41">
+      <c r="T17" s="40">
         <v>1</v>
       </c>
       <c r="U17" t="s" s="4">
         <v>120</v>
       </c>
-      <c r="V17" s="41">
+      <c r="V17" s="40">
         <v>1</v>
       </c>
-      <c r="W17" s="41">
+      <c r="W17" s="40">
         <v>2</v>
       </c>
-      <c r="X17" s="41">
+      <c r="X17" s="40">
         <v>999</v>
       </c>
       <c r="Y17" s="9"/>
@@ -3310,179 +3301,179 @@
       <c r="AG17" s="9"/>
     </row>
     <row r="18" ht="13.8" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="55"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="53"/>
+      <c r="AE18" s="53"/>
+      <c r="AF18" s="53"/>
+      <c r="AG18" s="54"/>
     </row>
     <row r="19" ht="13.8" customHeight="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="57"/>
-      <c r="AD19" s="57"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="57"/>
-      <c r="AG19" s="58"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="57"/>
     </row>
     <row r="20" ht="13.8" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="58"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="57"/>
     </row>
     <row r="21" ht="13.8" customHeight="1">
-      <c r="A21" s="56"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="57"/>
-      <c r="AC21" s="57"/>
-      <c r="AD21" s="57"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="57"/>
-      <c r="AG21" s="58"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="57"/>
     </row>
     <row r="22" ht="13.8" customHeight="1">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="60"/>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="60"/>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="60"/>
-      <c r="AG22" s="61"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MakeAGame/LubanTool/GameConfig/Datas/Character.xlsx
+++ b/MakeAGame/LubanTool/GameConfig/Datas/Character.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo_MakeAGame\MakeAGame\MakeAGame\LubanTool\GameConfig\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F4C127-7EAE-4763-B950-E16589BD693B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="165">
   <si>
     <t>##var</t>
   </si>
@@ -337,72 +346,279 @@
     <t>Purple</t>
   </si>
   <si>
+    <t>对4*4的格子造成40点伤害，15%的概率获得一张B级员工。</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Stamina,4</t>
+  </si>
+  <si>
+    <t>6,7,8</t>
+  </si>
+  <si>
+    <t>Charisma,0.02</t>
+  </si>
+  <si>
+    <t>藤曼</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Spirit,10</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Left,Right</t>
+  </si>
+  <si>
+    <t>Charisma,0.1</t>
+  </si>
+  <si>
+    <t>魔虫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>White</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Total,-0.07</t>
-  </si>
-  <si>
-    <t>对4*4的格子造成40点伤害，15%的概率获得一张B级员工。</t>
-  </si>
-  <si>
-    <t>75</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择3*3的格子并将他们的时间流逝速率变为慢，持续30秒。</t>
+  </si>
+  <si>
+    <t>使一个战斗中的敌方单位攻速永久-0.3（最低0.1），如果该单位对声音敏感，则在该场战斗中额外-0.3。</t>
+  </si>
+  <si>
+    <t>为一个友方单位恢复35点生命值。</t>
+  </si>
+  <si>
+    <t>使3*3格子内的敌人混乱15秒，混乱中的敌人将随机移动。</t>
+  </si>
+  <si>
+    <t>将4*4格子的时间流逝速率修正为正常，持续40秒。</t>
+  </si>
+  <si>
+    <t>使1*6格子内的敌人移动速度减半，持续3秒，随后这些格子时间流逝速率永久降低一个级别.</t>
+  </si>
+  <si>
+    <r>
+      <t>在任意2*2的格子上分别召唤1只</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔虫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>猫头鹰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>呱呱蛙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱笑猫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡鸦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total,-0.05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total,-0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total,-0.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stamina,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Stamina,4</t>
-  </si>
-  <si>
-    <t>6,7,8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strength,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,14,19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17,18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top,Down</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Charisma,0.02</t>
-  </si>
-  <si>
-    <t>藤曼</t>
-  </si>
-  <si>
-    <t>使1*6格子内的敌人移动速度减半，持续3秒，随后这些格子时间流逝速率永久降低一个级别</t>
-  </si>
-  <si>
-    <t>30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charisma,0.04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水精</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为3*3格子内的友方单位回复20点生命值，如果该范围内有水，则回复25点。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Spirit,10</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Left,Right</t>
-  </si>
-  <si>
-    <t>Charisma,0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top,Right,Down,Left</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="12"/>
+      <color indexed="8"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -419,7 +635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -803,32 +1019,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -904,195 +1094,264 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="74">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="61">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1102,26 +1361,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffbd6427"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFBD6427"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1323,7 +1641,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1342,7 +1660,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1372,7 +1690,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1398,7 +1716,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1424,7 +1742,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1450,7 +1768,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1476,7 +1794,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1502,7 +1820,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1528,7 +1846,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1554,7 +1872,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1580,7 +1898,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1593,9 +1911,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1612,7 +1936,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1631,7 +1955,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1657,7 +1981,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1683,7 +2007,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1709,7 +2033,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1735,7 +2059,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1761,7 +2085,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1787,7 +2111,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1813,7 +2137,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1839,7 +2163,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1865,7 +2189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1878,9 +2202,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1894,7 +2224,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1913,7 +2243,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1943,7 +2273,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1969,7 +2299,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1995,7 +2325,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2021,7 +2351,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2047,7 +2377,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2073,7 +2403,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2099,7 +2429,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2125,7 +2455,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2151,7 +2481,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2164,118 +2494,127 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.17188" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1719" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.35156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.8516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85156" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.8516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.8516" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="20" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6719" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.3516" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" style="1" customWidth="1"/>
     <col min="17" max="18" width="9" style="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="1" customWidth="1"/>
     <col min="20" max="20" width="14.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.8516" style="1" customWidth="1"/>
-    <col min="22" max="33" width="9" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="9" style="1" customWidth="1"/>
+    <col min="21" max="21" width="18.83203125" style="1" customWidth="1"/>
+    <col min="22" max="34" width="9" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="5">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="6">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="7">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="4">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="8">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="7">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="4">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="4">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="8">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="7">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="4">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="4">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="9"/>
@@ -2288,77 +2627,77 @@
       <c r="AF1" s="9"/>
       <c r="AG1" s="9"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s" s="10">
+      <c r="B2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s" s="10">
+      <c r="C2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s" s="11">
+      <c r="D2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s" s="12">
+      <c r="E2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s" s="13">
+      <c r="F2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s" s="14">
+      <c r="G2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s" s="10">
+      <c r="H2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s" s="10">
+      <c r="I2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s" s="14">
+      <c r="J2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s" s="10">
+      <c r="K2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s" s="14">
+      <c r="L2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s" s="15">
+      <c r="M2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s" s="16">
+      <c r="N2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s" s="17">
+      <c r="O2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s" s="18">
+      <c r="P2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" t="s" s="16">
+      <c r="Q2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="R2" t="s" s="19">
+      <c r="R2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="S2" t="s" s="12">
+      <c r="S2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T2" t="s" s="20">
+      <c r="T2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="U2" t="s" s="14">
+      <c r="U2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="V2" t="s" s="16">
+      <c r="V2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="W2" t="s" s="19">
+      <c r="W2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="X2" t="s" s="19">
+      <c r="X2" s="19" t="s">
         <v>25</v>
       </c>
       <c r="Y2" s="21"/>
@@ -2371,77 +2710,77 @@
       <c r="AF2" s="9"/>
       <c r="AG2" s="9"/>
     </row>
-    <row r="3" ht="23.85" customHeight="1">
-      <c r="A3" t="s" s="22">
+    <row r="3" spans="1:33" ht="23.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s" s="23">
+      <c r="B3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s" s="23">
+      <c r="C3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s" s="23">
+      <c r="D3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s" s="24">
+      <c r="E3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F3" t="s" s="23">
+      <c r="F3" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G3" t="s" s="23">
+      <c r="G3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="s" s="23">
+      <c r="H3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s" s="23">
+      <c r="I3" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="J3" t="s" s="23">
+      <c r="J3" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K3" t="s" s="23">
+      <c r="K3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L3" t="s" s="23">
+      <c r="L3" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M3" t="s" s="24">
+      <c r="M3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="N3" t="s" s="24">
+      <c r="N3" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="O3" t="s" s="24">
+      <c r="O3" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="P3" t="s" s="24">
+      <c r="P3" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" t="s" s="24">
+      <c r="Q3" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="R3" t="s" s="24">
+      <c r="R3" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="S3" t="s" s="24">
+      <c r="S3" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="T3" t="s" s="24">
+      <c r="T3" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="U3" t="s" s="23">
+      <c r="U3" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="V3" t="s" s="24">
+      <c r="V3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="W3" t="s" s="24">
+      <c r="W3" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="X3" t="s" s="25">
+      <c r="X3" s="25" t="s">
         <v>56</v>
       </c>
       <c r="Y3" s="26"/>
@@ -2454,39 +2793,39 @@
       <c r="AF3" s="9"/>
       <c r="AG3" s="9"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="28">
         <v>1</v>
       </c>
-      <c r="C4" t="s" s="29">
+      <c r="C4" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s" s="30">
+      <c r="D4" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E4" t="s" s="31">
+      <c r="E4" s="31" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="32">
         <v>90</v>
       </c>
-      <c r="G4" t="s" s="29">
+      <c r="G4" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H4" t="s" s="29">
+      <c r="H4" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="I4" t="s" s="29">
+      <c r="I4" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s" s="29">
+      <c r="J4" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s" s="29">
+      <c r="K4" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s" s="29">
+      <c r="L4" s="29" t="s">
         <v>65</v>
       </c>
       <c r="M4" s="33">
@@ -2495,10 +2834,10 @@
       <c r="N4" s="34">
         <v>2</v>
       </c>
-      <c r="O4" t="s" s="31">
+      <c r="O4" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="P4" t="s" s="31">
+      <c r="P4" s="31" t="s">
         <v>67</v>
       </c>
       <c r="Q4" s="35">
@@ -2507,13 +2846,13 @@
       <c r="R4" s="35">
         <v>1</v>
       </c>
-      <c r="S4" t="s" s="31">
+      <c r="S4" s="31" t="s">
         <v>68</v>
       </c>
       <c r="T4" s="35">
         <v>1.25</v>
       </c>
-      <c r="U4" t="s" s="31">
+      <c r="U4" s="31" t="s">
         <v>69</v>
       </c>
       <c r="V4" s="35">
@@ -2535,39 +2874,39 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F5" t="s" s="5">
+      <c r="F5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s" s="2">
+      <c r="J5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="K5" s="37">
         <v>0</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="L5" s="2" t="s">
         <v>75</v>
       </c>
       <c r="M5" s="38">
@@ -2576,10 +2915,10 @@
       <c r="N5" s="39">
         <v>0</v>
       </c>
-      <c r="O5" t="s" s="4">
+      <c r="O5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P5" t="s" s="4">
+      <c r="P5" s="4" t="s">
         <v>77</v>
       </c>
       <c r="Q5" s="40">
@@ -2588,13 +2927,13 @@
       <c r="R5" s="40">
         <v>1</v>
       </c>
-      <c r="S5" t="s" s="4">
+      <c r="S5" s="4" t="s">
         <v>68</v>
       </c>
       <c r="T5" s="40">
         <v>1.25</v>
       </c>
-      <c r="U5" t="s" s="4">
+      <c r="U5" s="4" t="s">
         <v>78</v>
       </c>
       <c r="V5" s="40">
@@ -2616,51 +2955,51 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41"/>
       <c r="B6" s="42">
         <v>3</v>
       </c>
-      <c r="C6" t="s" s="43">
+      <c r="C6" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E6" t="s" s="44">
+      <c r="E6" s="44" t="s">
         <v>59</v>
       </c>
       <c r="F6" s="45">
         <v>90</v>
       </c>
-      <c r="G6" t="s" s="2">
+      <c r="G6" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H6" t="s" s="46">
+      <c r="H6" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="I6" t="s" s="41">
+      <c r="I6" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="J6" t="s" s="41">
+      <c r="J6" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="K6" t="s" s="41">
+      <c r="K6" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="L6" t="s" s="41">
+      <c r="L6" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="47">
+      <c r="M6" s="46">
         <v>5</v>
       </c>
       <c r="N6" s="40">
         <v>0</v>
       </c>
-      <c r="O6" t="s" s="4">
+      <c r="O6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="P6" t="s" s="4">
+      <c r="P6" s="4" t="s">
         <v>86</v>
       </c>
       <c r="Q6" s="40">
@@ -2669,13 +3008,13 @@
       <c r="R6" s="40">
         <v>1</v>
       </c>
-      <c r="S6" t="s" s="4">
+      <c r="S6" s="4" t="s">
         <v>68</v>
       </c>
       <c r="T6" s="40">
         <v>1.25</v>
       </c>
-      <c r="U6" t="s" s="4">
+      <c r="U6" s="4" t="s">
         <v>87</v>
       </c>
       <c r="V6" s="40">
@@ -2697,39 +3036,39 @@
       <c r="AF6" s="9"/>
       <c r="AG6" s="9"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49">
+    <row r="7" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48">
         <v>4</v>
       </c>
-      <c r="C7" t="s" s="50">
+      <c r="C7" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="D7" t="s" s="41">
+      <c r="D7" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="E7" t="s" s="50">
+      <c r="E7" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="48">
         <v>20</v>
       </c>
-      <c r="G7" t="s" s="41">
+      <c r="G7" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="H7" t="s" s="50">
+      <c r="H7" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="I7" t="s" s="50">
+      <c r="I7" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="J7" t="s" s="50">
+      <c r="J7" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="K7" t="s" s="50">
+      <c r="K7" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="L7" t="s" s="50">
+      <c r="L7" s="49" t="s">
         <v>60</v>
       </c>
       <c r="M7" s="40">
@@ -2746,13 +3085,13 @@
       <c r="R7" s="40">
         <v>1</v>
       </c>
-      <c r="S7" t="s" s="4">
+      <c r="S7" s="4" t="s">
         <v>68</v>
       </c>
       <c r="T7" s="40">
         <v>2</v>
       </c>
-      <c r="U7" t="s" s="4">
+      <c r="U7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="V7" s="40">
@@ -2774,39 +3113,39 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49">
+    <row r="8" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="47"/>
+      <c r="B8" s="48">
         <v>5</v>
       </c>
-      <c r="C8" t="s" s="50">
+      <c r="C8" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="D8" t="s" s="50">
+      <c r="D8" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E8" t="s" s="50">
+      <c r="E8" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="48">
         <v>20</v>
       </c>
-      <c r="G8" t="s" s="50">
+      <c r="G8" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="H8" t="s" s="50">
+      <c r="H8" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="I8" t="s" s="50">
+      <c r="I8" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="J8" t="s" s="50">
+      <c r="J8" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="K8" t="s" s="50">
+      <c r="K8" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="L8" t="s" s="50">
+      <c r="L8" s="49" t="s">
         <v>60</v>
       </c>
       <c r="M8" s="40">
@@ -2825,13 +3164,13 @@
       <c r="R8" s="40">
         <v>1</v>
       </c>
-      <c r="S8" t="s" s="4">
+      <c r="S8" s="4" t="s">
         <v>68</v>
       </c>
       <c r="T8" s="40">
-        <v>1.67</v>
-      </c>
-      <c r="U8" t="s" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>60</v>
       </c>
       <c r="V8" s="40">
@@ -2853,39 +3192,39 @@
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49">
+    <row r="9" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48">
         <v>6</v>
       </c>
-      <c r="C9" t="s" s="50">
+      <c r="C9" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D9" t="s" s="50">
+      <c r="D9" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E9" t="s" s="50">
+      <c r="E9" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="48">
         <v>20</v>
       </c>
-      <c r="G9" t="s" s="50">
+      <c r="G9" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="H9" t="s" s="50">
+      <c r="H9" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="I9" t="s" s="50">
+      <c r="I9" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="J9" t="s" s="50">
+      <c r="J9" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="K9" t="s" s="50">
+      <c r="K9" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="L9" t="s" s="50">
+      <c r="L9" s="49" t="s">
         <v>60</v>
       </c>
       <c r="M9" s="40">
@@ -2894,7 +3233,7 @@
       <c r="N9" s="40">
         <v>2</v>
       </c>
-      <c r="O9" t="s" s="4">
+      <c r="O9" s="4" t="s">
         <v>104</v>
       </c>
       <c r="P9" s="9"/>
@@ -2904,13 +3243,13 @@
       <c r="R9" s="40">
         <v>1</v>
       </c>
-      <c r="S9" t="s" s="4">
+      <c r="S9" s="4" t="s">
         <v>68</v>
       </c>
       <c r="T9" s="40">
-        <v>1.67</v>
-      </c>
-      <c r="U9" t="s" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="U9" s="4" t="s">
         <v>105</v>
       </c>
       <c r="V9" s="40">
@@ -2932,39 +3271,39 @@
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49">
+    <row r="10" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="47"/>
+      <c r="B10" s="48">
         <v>7</v>
       </c>
-      <c r="C10" t="s" s="50">
+      <c r="C10" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="D10" t="s" s="50">
+      <c r="D10" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="E10" t="s" s="50">
+      <c r="E10" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="48">
         <v>20</v>
       </c>
-      <c r="G10" t="s" s="50">
+      <c r="G10" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="H10" t="s" s="50">
+      <c r="I10" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="I10" t="s" s="50">
+      <c r="J10" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="J10" t="s" s="50">
-        <v>111</v>
-      </c>
-      <c r="K10" t="s" s="50">
+      <c r="K10" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="L10" t="s" s="50">
+      <c r="L10" s="49" t="s">
         <v>60</v>
       </c>
       <c r="M10" s="40">
@@ -2973,8 +3312,8 @@
       <c r="N10" s="40">
         <v>2</v>
       </c>
-      <c r="O10" t="s" s="4">
-        <v>112</v>
+      <c r="O10" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="40">
@@ -2983,14 +3322,14 @@
       <c r="R10" s="40">
         <v>1</v>
       </c>
-      <c r="S10" t="s" s="4">
+      <c r="S10" s="4" t="s">
         <v>68</v>
       </c>
       <c r="T10" s="40">
-        <v>1.67</v>
-      </c>
-      <c r="U10" t="s" s="4">
-        <v>113</v>
+        <v>1.7</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="V10" s="40">
         <v>0.9</v>
@@ -3011,31 +3350,71 @@
       <c r="AF10" s="9"/>
       <c r="AG10" s="9"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+    <row r="11" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47">
+        <v>8</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="47">
+        <v>12</v>
+      </c>
+      <c r="G11" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="49"/>
+      <c r="K11" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="M11" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
+      <c r="Q11" s="9">
+        <v>1</v>
+      </c>
+      <c r="R11" s="9">
+        <v>1</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T11" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="U11" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="V11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W11" s="9">
+        <v>5</v>
+      </c>
+      <c r="X11" s="9">
+        <v>999</v>
+      </c>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
@@ -3046,31 +3425,73 @@
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+    <row r="12" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47">
+        <v>9</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="47">
+        <v>40</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="L12" s="47"/>
+      <c r="M12" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12" s="60" t="s">
+        <v>153</v>
+      </c>
       <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
+      <c r="Q12" s="9">
+        <v>1</v>
+      </c>
+      <c r="R12" s="9">
+        <v>1</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T12" s="9">
+        <v>2</v>
+      </c>
+      <c r="U12" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="V12" s="9">
+        <v>1</v>
+      </c>
+      <c r="W12" s="9">
+        <v>3</v>
+      </c>
+      <c r="X12" s="9">
+        <v>999</v>
+      </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -3081,31 +3502,73 @@
       <c r="AF12" s="9"/>
       <c r="AG12" s="9"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+    <row r="13" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47">
+        <v>10</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="47">
+        <v>24</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" s="49"/>
+      <c r="K13" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" s="9">
+        <v>2</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="60" t="s">
+        <v>154</v>
+      </c>
       <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
+      <c r="Q13" s="9">
+        <v>1</v>
+      </c>
+      <c r="R13" s="9">
+        <v>1</v>
+      </c>
+      <c r="S13" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="T13" s="9">
+        <v>2</v>
+      </c>
+      <c r="U13" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="V13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="W13" s="9">
+        <v>1</v>
+      </c>
+      <c r="X13" s="9">
+        <v>999</v>
+      </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -3116,31 +3579,75 @@
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+    <row r="14" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47">
+        <v>11</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="47">
+        <v>30</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" s="9">
+        <v>4</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>11</v>
+      </c>
       <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
+      <c r="Q14" s="9">
+        <v>1</v>
+      </c>
+      <c r="R14" s="9">
+        <v>1</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T14" s="9">
+        <v>2</v>
+      </c>
+      <c r="U14" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="W14" s="9">
+        <v>1</v>
+      </c>
+      <c r="X14" s="9">
+        <v>999</v>
+      </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -3151,31 +3658,73 @@
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+    <row r="15" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47">
+        <v>12</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="47">
+        <v>30</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="49"/>
+      <c r="K15" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" s="9">
+        <v>2</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="60" t="s">
+        <v>155</v>
+      </c>
       <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
+      <c r="Q15" s="9">
+        <v>1</v>
+      </c>
+      <c r="R15" s="9">
+        <v>1</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T15" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="U15" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="W15" s="9">
+        <v>1</v>
+      </c>
+      <c r="X15" s="9">
+        <v>999</v>
+      </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -3186,31 +3735,73 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
+    <row r="16" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47">
+        <v>13</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="47">
+        <v>60</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" s="49"/>
+      <c r="K16" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" s="47"/>
+      <c r="M16" s="9">
+        <v>4</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+      <c r="O16" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="P16" s="9">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>1</v>
+      </c>
+      <c r="R16" s="9">
+        <v>1</v>
+      </c>
+      <c r="S16" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="T16" s="9">
+        <v>0</v>
+      </c>
+      <c r="U16" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="V16" s="9">
+        <v>0</v>
+      </c>
+      <c r="W16" s="9">
+        <v>0</v>
+      </c>
+      <c r="X16" s="9">
+        <v>999</v>
+      </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -3221,39 +3812,39 @@
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49">
+    <row r="17" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="47"/>
+      <c r="B17" s="48">
         <v>14</v>
       </c>
-      <c r="C17" t="s" s="50">
+      <c r="C17" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="48">
+        <v>14</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="D17" t="s" s="50">
-        <v>89</v>
-      </c>
-      <c r="E17" t="s" s="50">
-        <v>59</v>
-      </c>
-      <c r="F17" s="49">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s" s="50">
-        <v>60</v>
-      </c>
-      <c r="H17" t="s" s="50">
+      <c r="J17" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="I17" t="s" s="50">
+      <c r="K17" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="J17" t="s" s="50">
-        <v>117</v>
-      </c>
-      <c r="K17" t="s" s="50">
-        <v>118</v>
-      </c>
-      <c r="L17" t="s" s="50">
+      <c r="L17" s="49" t="s">
         <v>60</v>
       </c>
       <c r="M17" s="40">
@@ -3272,14 +3863,14 @@
       <c r="R17" s="40">
         <v>1</v>
       </c>
-      <c r="S17" t="s" s="4">
-        <v>119</v>
+      <c r="S17" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="T17" s="40">
         <v>1</v>
       </c>
-      <c r="U17" t="s" s="4">
-        <v>120</v>
+      <c r="U17" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="V17" s="40">
         <v>1</v>
@@ -3300,184 +3891,231 @@
       <c r="AF17" s="9"/>
       <c r="AG17" s="9"/>
     </row>
-    <row r="18" ht="13.8" customHeight="1">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="53"/>
-      <c r="AC18" s="53"/>
-      <c r="AD18" s="53"/>
-      <c r="AE18" s="53"/>
-      <c r="AF18" s="53"/>
-      <c r="AG18" s="54"/>
+    <row r="18" spans="1:33" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47"/>
+      <c r="B18" s="48">
+        <v>15</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="48">
+        <v>40</v>
+      </c>
+      <c r="G18" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" s="40">
+        <v>3.5</v>
+      </c>
+      <c r="N18" s="40">
+        <v>1</v>
+      </c>
+      <c r="O18" s="9">
+        <v>15</v>
+      </c>
+      <c r="P18" s="40">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="40">
+        <v>1</v>
+      </c>
+      <c r="R18" s="40">
+        <v>1</v>
+      </c>
+      <c r="S18" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="T18" s="40">
+        <v>0</v>
+      </c>
+      <c r="U18" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="V18" s="40">
+        <v>0</v>
+      </c>
+      <c r="W18" s="40">
+        <v>3</v>
+      </c>
+      <c r="X18" s="40">
+        <v>999</v>
+      </c>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="51"/>
     </row>
-    <row r="19" ht="13.8" customHeight="1">
-      <c r="A19" s="55"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="57"/>
+    <row r="19" spans="1:33" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="53"/>
+      <c r="AD19" s="53"/>
+      <c r="AE19" s="53"/>
+      <c r="AF19" s="53"/>
+      <c r="AG19" s="54"/>
     </row>
-    <row r="20" ht="13.8" customHeight="1">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="57"/>
+    <row r="20" spans="1:33" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="54"/>
     </row>
-    <row r="21" ht="13.8" customHeight="1">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="57"/>
+    <row r="21" spans="1:33" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="53"/>
+      <c r="AE21" s="53"/>
+      <c r="AF21" s="53"/>
+      <c r="AG21" s="54"/>
     </row>
-    <row r="22" ht="13.8" customHeight="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="60"/>
+    <row r="22" spans="1:33" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="57"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/MakeAGame/LubanTool/GameConfig/Datas/Character.xlsx
+++ b/MakeAGame/LubanTool/GameConfig/Datas/Character.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo_MakeAGame\MakeAGame\MakeAGame\LubanTool\GameConfig\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F4C127-7EAE-4763-B950-E16589BD693B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>##var</t>
   </si>
@@ -346,6 +337,9 @@
     <t>Purple</t>
   </si>
   <si>
+    <t>Total,-0.07</t>
+  </si>
+  <si>
     <t>对4*4的格子造成40点伤害，15%的概率获得一张B级员工。</t>
   </si>
   <si>
@@ -361,264 +355,171 @@
     <t>Charisma,0.02</t>
   </si>
   <si>
-    <t>藤曼</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Spirit,10</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Left,Right</t>
-  </si>
-  <si>
-    <t>Charisma,0.1</t>
-  </si>
-  <si>
     <t>魔虫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>White</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total,-0.07</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择3*3的格子并将他们的时间流逝速率变为慢，持续30秒。</t>
-  </si>
-  <si>
-    <t>使一个战斗中的敌方单位攻速永久-0.3（最低0.1），如果该单位对声音敏感，则在该场战斗中额外-0.3。</t>
-  </si>
-  <si>
-    <t>为一个友方单位恢复35点生命值。</t>
-  </si>
-  <si>
-    <t>使3*3格子内的敌人混乱15秒，混乱中的敌人将随机移动。</t>
-  </si>
-  <si>
-    <t>将4*4格子的时间流逝速率修正为正常，持续40秒。</t>
-  </si>
-  <si>
-    <t>使1*6格子内的敌人移动速度减半，持续3秒，随后这些格子时间流逝速率永久降低一个级别.</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
       <t>在任意2*2的格子上分别召唤1只</t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <i val="1"/>
         <sz val="11"/>
+        <color indexed="8"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
       </rPr>
       <t>魔虫</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color indexed="8"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
       </rPr>
       <t>。</t>
     </r>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>猫头鹰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择3*3的格子并将他们的时间流逝速率变为慢，持续30秒。</t>
+  </si>
+  <si>
+    <t>Stamina,1</t>
+  </si>
+  <si>
+    <t>13,14,19</t>
   </si>
   <si>
     <t>呱呱蛙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使一个战斗中的敌方单位攻速永久-0.3（最低0.1），如果该单位对声音敏感，则在该场战斗中额外-0.3。</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>15,18</t>
+  </si>
+  <si>
+    <t>Top,Down</t>
   </si>
   <si>
     <t>失败品</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为一个友方单位恢复35点生命值。</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Skill,1</t>
   </si>
   <si>
     <t>爱笑猫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total,-0.1</t>
+  </si>
+  <si>
+    <t>使3*3格子内的敌人混乱15秒，混乱中的敌人将随机移动。</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>16,17,18</t>
+  </si>
+  <si>
+    <t>Charisma,0.04</t>
   </si>
   <si>
     <t>渡鸦</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total,-0.05</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total,-0.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Total,-0.2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将4*4格子的时间流逝速率修正为正常，持续40秒。</t>
   </si>
   <si>
     <t>1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stamina,1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stamina,4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strength,1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill,1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,14,19</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,18</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,17,18</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>13,19</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Top,Down</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charisma,0.02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charisma,0.04</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤曼</t>
+  </si>
+  <si>
+    <t>使1*6格子内的敌人移动速度减半，持续3秒，随后这些格子时间流逝速率永久降低一个级别.</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Spirit,10</t>
+  </si>
+  <si>
+    <t>Left,Right</t>
+  </si>
+  <si>
+    <t>Charisma,0.1</t>
   </si>
   <si>
     <t>水精</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>为3*3格子内的友方单位回复20点生命值，如果该范围内有水，则回复25点。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spirit,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Top,Right,Down,Left</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <i val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -948,25 +849,25 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -978,7 +879,7 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
@@ -990,22 +891,22 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -1016,6 +917,107 @@
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1035,6 +1037,31 @@
       <top style="thin">
         <color indexed="11"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1048,22 +1075,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="11"/>
       </left>
@@ -1094,264 +1105,210 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="66">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1361,85 +1318,26 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFBD6427"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffbd6427"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1641,7 +1539,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1660,7 +1558,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1690,7 +1588,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1716,7 +1614,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1742,7 +1640,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1768,7 +1666,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1794,7 +1692,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1820,7 +1718,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1846,7 +1744,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1872,7 +1770,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1898,7 +1796,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1911,15 +1809,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1936,7 +1828,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1955,7 +1847,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1981,7 +1873,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2007,7 +1899,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2033,7 +1925,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2059,7 +1951,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2085,7 +1977,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2111,7 +2003,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2137,7 +2029,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2163,7 +2055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2189,7 +2081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2202,15 +2094,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2224,7 +2110,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2243,7 +2129,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2273,7 +2159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2299,7 +2185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2325,7 +2211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2351,7 +2237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2377,7 +2263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2403,7 +2289,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2429,7 +2315,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2455,7 +2341,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2481,7 +2367,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2494,127 +2380,118 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.17188" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1719" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.35156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.8516" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85156" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.8516" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.8516" style="1" customWidth="1"/>
     <col min="13" max="13" width="20" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6719" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.3516" style="1" customWidth="1"/>
     <col min="17" max="18" width="9" style="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="1" customWidth="1"/>
     <col min="20" max="20" width="14.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.83203125" style="1" customWidth="1"/>
-    <col min="22" max="34" width="9" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="1"/>
+    <col min="21" max="21" width="18.8516" style="1" customWidth="1"/>
+    <col min="22" max="33" width="9" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" t="s" s="4">
         <v>23</v>
       </c>
       <c r="Y1" s="9"/>
@@ -2627,77 +2504,77 @@
       <c r="AF1" s="9"/>
       <c r="AG1" s="9"/>
     </row>
-    <row r="2" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" t="s" s="14">
         <v>29</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" t="s" s="14">
         <v>29</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" t="s" s="14">
         <v>29</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" t="s" s="15">
         <v>30</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" t="s" s="16">
         <v>30</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" t="s" s="17">
         <v>31</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" t="s" s="18">
         <v>31</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" t="s" s="16">
         <v>25</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" t="s" s="19">
         <v>25</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" t="s" s="12">
         <v>32</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" t="s" s="20">
         <v>30</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" t="s" s="14">
         <v>29</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" t="s" s="16">
         <v>30</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="W2" t="s" s="19">
         <v>25</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="X2" t="s" s="19">
         <v>25</v>
       </c>
       <c r="Y2" s="21"/>
@@ -2710,77 +2587,77 @@
       <c r="AF2" s="9"/>
       <c r="AG2" s="9"/>
     </row>
-    <row r="3" spans="1:33" ht="23.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+    <row r="3" ht="23.9" customHeight="1">
+      <c r="A3" t="s" s="22">
         <v>33</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" t="s" s="23">
         <v>34</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" t="s" s="23">
         <v>35</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" t="s" s="24">
         <v>37</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" t="s" s="23">
         <v>38</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" t="s" s="23">
         <v>39</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" t="s" s="23">
         <v>40</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" t="s" s="23">
         <v>41</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" t="s" s="23">
         <v>42</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" t="s" s="23">
         <v>43</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" t="s" s="23">
         <v>44</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" t="s" s="24">
         <v>45</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" t="s" s="24">
         <v>46</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" t="s" s="24">
         <v>47</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" t="s" s="24">
         <v>48</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" t="s" s="24">
         <v>49</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" t="s" s="24">
         <v>50</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" t="s" s="24">
         <v>51</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" t="s" s="24">
         <v>52</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="U3" t="s" s="23">
         <v>53</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="V3" t="s" s="24">
         <v>54</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="W3" t="s" s="24">
         <v>55</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" t="s" s="25">
         <v>56</v>
       </c>
       <c r="Y3" s="26"/>
@@ -2793,78 +2670,78 @@
       <c r="AF3" s="9"/>
       <c r="AG3" s="9"/>
     </row>
-    <row r="4" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="16" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="28">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" t="s" s="29">
         <v>57</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" t="s" s="30">
         <v>58</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" t="s" s="31">
         <v>59</v>
       </c>
       <c r="F4" s="32">
         <v>90</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" t="s" s="29">
         <v>60</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" t="s" s="33">
         <v>61</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" t="s" s="29">
         <v>62</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" t="s" s="29">
         <v>63</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" t="s" s="29">
         <v>64</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" t="s" s="29">
         <v>65</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="34">
         <v>4</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4" s="35">
         <v>2</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" t="s" s="31">
         <v>66</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" t="s" s="31">
         <v>67</v>
       </c>
-      <c r="Q4" s="35">
-        <v>1</v>
-      </c>
-      <c r="R4" s="35">
-        <v>1</v>
-      </c>
-      <c r="S4" s="31" t="s">
+      <c r="Q4" s="36">
+        <v>1</v>
+      </c>
+      <c r="R4" s="36">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s" s="31">
         <v>68</v>
       </c>
-      <c r="T4" s="35">
+      <c r="T4" s="36">
         <v>1.25</v>
       </c>
-      <c r="U4" s="31" t="s">
+      <c r="U4" t="s" s="31">
         <v>69</v>
       </c>
-      <c r="V4" s="35">
+      <c r="V4" s="36">
         <v>0.9</v>
       </c>
-      <c r="W4" s="35">
-        <v>1</v>
-      </c>
-      <c r="X4" s="35">
+      <c r="W4" s="36">
+        <v>1</v>
+      </c>
+      <c r="X4" s="36">
         <v>999</v>
       </c>
-      <c r="Y4" s="36"/>
+      <c r="Y4" s="37"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
@@ -2874,75 +2751,75 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
     </row>
-    <row r="5" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="16" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s" s="3">
         <v>58</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s" s="4">
         <v>59</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" t="s" s="5">
         <v>72</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" t="s" s="22">
         <v>60</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" t="s" s="23">
         <v>73</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" t="s" s="38">
         <v>74</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="39">
         <v>0</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="M5" s="38">
-        <v>1</v>
-      </c>
-      <c r="N5" s="39">
+      <c r="M5" s="40">
+        <v>1</v>
+      </c>
+      <c r="N5" s="41">
         <v>0</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" t="s" s="4">
         <v>76</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" t="s" s="4">
         <v>77</v>
       </c>
-      <c r="Q5" s="40">
-        <v>1</v>
-      </c>
-      <c r="R5" s="40">
-        <v>1</v>
-      </c>
-      <c r="S5" s="4" t="s">
+      <c r="Q5" s="42">
+        <v>1</v>
+      </c>
+      <c r="R5" s="42">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="T5" s="40">
+      <c r="T5" s="42">
         <v>1.25</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" t="s" s="4">
         <v>78</v>
       </c>
-      <c r="V5" s="40">
+      <c r="V5" s="42">
         <v>0.7</v>
       </c>
-      <c r="W5" s="40">
+      <c r="W5" s="42">
         <v>2</v>
       </c>
-      <c r="X5" s="40">
+      <c r="X5" s="42">
         <v>999</v>
       </c>
       <c r="Y5" s="9"/>
@@ -2955,75 +2832,75 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
     </row>
-    <row r="6" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42">
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44">
         <v>3</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" t="s" s="45">
         <v>79</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" t="s" s="46">
         <v>59</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="47">
         <v>90</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" t="s" s="22">
         <v>60</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" t="s" s="23">
         <v>80</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" t="s" s="48">
         <v>81</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" t="s" s="43">
         <v>82</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" t="s" s="43">
         <v>83</v>
       </c>
-      <c r="L6" s="41" t="s">
+      <c r="L6" t="s" s="43">
         <v>84</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6" s="49">
         <v>5</v>
       </c>
-      <c r="N6" s="40">
+      <c r="N6" s="42">
         <v>0</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" t="s" s="4">
         <v>85</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" t="s" s="4">
         <v>86</v>
       </c>
-      <c r="Q6" s="40">
-        <v>1</v>
-      </c>
-      <c r="R6" s="40">
-        <v>1</v>
-      </c>
-      <c r="S6" s="4" t="s">
+      <c r="Q6" s="42">
+        <v>1</v>
+      </c>
+      <c r="R6" s="42">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="T6" s="40">
+      <c r="T6" s="42">
         <v>1.25</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" t="s" s="4">
         <v>87</v>
       </c>
-      <c r="V6" s="40">
+      <c r="V6" s="42">
         <v>0.7</v>
       </c>
-      <c r="W6" s="40">
+      <c r="W6" s="42">
         <v>2</v>
       </c>
-      <c r="X6" s="40">
+      <c r="X6" s="42">
         <v>999</v>
       </c>
       <c r="Y6" s="9"/>
@@ -3036,71 +2913,71 @@
       <c r="AF6" s="9"/>
       <c r="AG6" s="9"/>
     </row>
-    <row r="7" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48">
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="50"/>
+      <c r="B7" s="51">
         <v>4</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" t="s" s="52">
         <v>88</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" t="s" s="43">
         <v>89</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" t="s" s="52">
         <v>59</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="51">
         <v>20</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" t="s" s="53">
         <v>90</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" t="s" s="23">
         <v>91</v>
       </c>
-      <c r="I7" s="69" t="s">
+      <c r="I7" t="s" s="54">
         <v>92</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" t="s" s="52">
         <v>93</v>
       </c>
-      <c r="K7" s="49" t="s">
+      <c r="K7" t="s" s="52">
         <v>83</v>
       </c>
-      <c r="L7" s="49" t="s">
+      <c r="L7" t="s" s="52">
         <v>60</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="42">
         <v>3.5</v>
       </c>
-      <c r="N7" s="40">
+      <c r="N7" s="42">
         <v>0</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="40">
-        <v>1</v>
-      </c>
-      <c r="R7" s="40">
-        <v>1</v>
-      </c>
-      <c r="S7" s="4" t="s">
+      <c r="Q7" s="42">
+        <v>1</v>
+      </c>
+      <c r="R7" s="42">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="T7" s="40">
+      <c r="T7" s="42">
         <v>2</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" t="s" s="4">
         <v>60</v>
       </c>
-      <c r="V7" s="40">
+      <c r="V7" s="42">
         <v>0.6</v>
       </c>
-      <c r="W7" s="40">
-        <v>1</v>
-      </c>
-      <c r="X7" s="40">
+      <c r="W7" s="42">
+        <v>1</v>
+      </c>
+      <c r="X7" s="42">
         <v>999</v>
       </c>
       <c r="Y7" s="9"/>
@@ -3113,73 +2990,73 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48">
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="50"/>
+      <c r="B8" s="51">
         <v>5</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" t="s" s="52">
         <v>94</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" t="s" s="52">
         <v>95</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" t="s" s="52">
         <v>59</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="51">
         <v>20</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" t="s" s="55">
         <v>96</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" t="s" s="23">
         <v>97</v>
       </c>
-      <c r="I8" s="69" t="s">
+      <c r="I8" t="s" s="54">
         <v>74</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" t="s" s="52">
         <v>93</v>
       </c>
-      <c r="K8" s="49" t="s">
+      <c r="K8" t="s" s="52">
         <v>83</v>
       </c>
-      <c r="L8" s="49" t="s">
+      <c r="L8" t="s" s="52">
         <v>60</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M8" s="42">
         <v>3.5</v>
       </c>
-      <c r="N8" s="40">
-        <v>1</v>
-      </c>
-      <c r="O8" s="40">
+      <c r="N8" s="42">
+        <v>1</v>
+      </c>
+      <c r="O8" s="42">
         <v>6</v>
       </c>
       <c r="P8" s="9"/>
-      <c r="Q8" s="40">
-        <v>1</v>
-      </c>
-      <c r="R8" s="40">
-        <v>1</v>
-      </c>
-      <c r="S8" s="4" t="s">
+      <c r="Q8" s="42">
+        <v>1</v>
+      </c>
+      <c r="R8" s="42">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="T8" s="40">
+      <c r="T8" s="42">
         <v>1.7</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U8" t="s" s="4">
         <v>60</v>
       </c>
-      <c r="V8" s="40">
+      <c r="V8" s="42">
         <v>0.7</v>
       </c>
-      <c r="W8" s="40">
-        <v>1</v>
-      </c>
-      <c r="X8" s="40">
+      <c r="W8" s="42">
+        <v>1</v>
+      </c>
+      <c r="X8" s="42">
         <v>999</v>
       </c>
       <c r="Y8" s="9"/>
@@ -3192,73 +3069,73 @@
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
     </row>
-    <row r="9" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48">
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="50"/>
+      <c r="B9" s="51">
         <v>6</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" t="s" s="52">
         <v>98</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" t="s" s="52">
         <v>99</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" t="s" s="52">
         <v>59</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="51">
         <v>20</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" t="s" s="55">
         <v>100</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" t="s" s="23">
         <v>101</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="I9" t="s" s="54">
         <v>81</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" t="s" s="52">
         <v>102</v>
       </c>
-      <c r="K9" s="49" t="s">
+      <c r="K9" t="s" s="52">
         <v>103</v>
       </c>
-      <c r="L9" s="49" t="s">
+      <c r="L9" t="s" s="52">
         <v>60</v>
       </c>
-      <c r="M9" s="40">
+      <c r="M9" s="42">
         <v>2.5</v>
       </c>
-      <c r="N9" s="40">
+      <c r="N9" s="42">
         <v>2</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" t="s" s="4">
         <v>104</v>
       </c>
       <c r="P9" s="9"/>
-      <c r="Q9" s="40">
-        <v>1</v>
-      </c>
-      <c r="R9" s="40">
-        <v>1</v>
-      </c>
-      <c r="S9" s="4" t="s">
+      <c r="Q9" s="42">
+        <v>1</v>
+      </c>
+      <c r="R9" s="42">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="T9" s="40">
+      <c r="T9" s="42">
         <v>1.7</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U9" t="s" s="4">
         <v>105</v>
       </c>
-      <c r="V9" s="40">
+      <c r="V9" s="42">
         <v>0.8</v>
       </c>
-      <c r="W9" s="40">
-        <v>1</v>
-      </c>
-      <c r="X9" s="40">
+      <c r="W9" s="42">
+        <v>1</v>
+      </c>
+      <c r="X9" s="42">
         <v>999</v>
       </c>
       <c r="Y9" s="9"/>
@@ -3271,73 +3148,73 @@
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
     </row>
-    <row r="10" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48">
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="50"/>
+      <c r="B10" s="51">
         <v>7</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" t="s" s="52">
         <v>106</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" t="s" s="52">
         <v>107</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" t="s" s="52">
         <v>59</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="51">
         <v>20</v>
       </c>
-      <c r="G10" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="72" t="s">
+      <c r="G10" t="s" s="55">
         <v>108</v>
       </c>
-      <c r="I10" s="69" t="s">
+      <c r="H10" t="s" s="23">
         <v>109</v>
       </c>
-      <c r="J10" s="49" t="s">
+      <c r="I10" t="s" s="54">
         <v>110</v>
       </c>
-      <c r="K10" s="49" t="s">
+      <c r="J10" t="s" s="52">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s" s="52">
         <v>64</v>
       </c>
-      <c r="L10" s="49" t="s">
+      <c r="L10" t="s" s="52">
         <v>60</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="42">
         <v>2.5</v>
       </c>
-      <c r="N10" s="40">
+      <c r="N10" s="42">
         <v>2</v>
       </c>
-      <c r="O10" s="4" t="s">
-        <v>111</v>
+      <c r="O10" t="s" s="4">
+        <v>112</v>
       </c>
       <c r="P10" s="9"/>
-      <c r="Q10" s="40">
-        <v>1</v>
-      </c>
-      <c r="R10" s="40">
-        <v>1</v>
-      </c>
-      <c r="S10" s="4" t="s">
+      <c r="Q10" s="42">
+        <v>1</v>
+      </c>
+      <c r="R10" s="42">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="T10" s="40">
+      <c r="T10" s="42">
         <v>1.7</v>
       </c>
-      <c r="U10" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="V10" s="40">
+      <c r="U10" t="s" s="4">
+        <v>113</v>
+      </c>
+      <c r="V10" s="42">
         <v>0.9</v>
       </c>
-      <c r="W10" s="40">
-        <v>1</v>
-      </c>
-      <c r="X10" s="40">
+      <c r="W10" s="42">
+        <v>1</v>
+      </c>
+      <c r="X10" s="42">
         <v>999</v>
       </c>
       <c r="Y10" s="9"/>
@@ -3350,69 +3227,71 @@
       <c r="AF10" s="9"/>
       <c r="AG10" s="9"/>
     </row>
-    <row r="11" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47">
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" s="50"/>
+      <c r="B11" s="51">
         <v>8</v>
       </c>
-      <c r="C11" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="47">
+      <c r="C11" t="s" s="52">
+        <v>114</v>
+      </c>
+      <c r="D11" t="s" s="52">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s" s="52">
+        <v>59</v>
+      </c>
+      <c r="F11" s="51">
         <v>12</v>
       </c>
-      <c r="G11" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="I11" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="L11" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="M11" s="9">
+      <c r="G11" t="s" s="55">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s" s="23">
+        <v>115</v>
+      </c>
+      <c r="I11" t="s" s="54">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s" s="52">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s" s="52">
+        <v>83</v>
+      </c>
+      <c r="L11" t="s" s="52">
+        <v>65</v>
+      </c>
+      <c r="M11" s="42">
         <v>2.5</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="42">
         <v>0</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
-      <c r="Q11" s="9">
-        <v>1</v>
-      </c>
-      <c r="R11" s="9">
-        <v>1</v>
-      </c>
-      <c r="S11" s="4" t="s">
+      <c r="Q11" s="42">
+        <v>1</v>
+      </c>
+      <c r="R11" s="42">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="42">
         <v>2.5</v>
       </c>
-      <c r="U11" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="V11" s="9">
+      <c r="U11" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="V11" s="42">
         <v>0.5</v>
       </c>
-      <c r="W11" s="9">
+      <c r="W11" s="42">
         <v>5</v>
       </c>
-      <c r="X11" s="9">
+      <c r="X11" s="42">
         <v>999</v>
       </c>
       <c r="Y11" s="9"/>
@@ -3425,71 +3304,73 @@
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
     </row>
-    <row r="12" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47">
+    <row r="12" ht="16" customHeight="1">
+      <c r="A12" s="50"/>
+      <c r="B12" s="51">
         <v>9</v>
       </c>
-      <c r="C12" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="58" t="s">
+      <c r="C12" t="s" s="52">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s" s="52">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s" s="52">
+        <v>59</v>
+      </c>
+      <c r="F12" s="51">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s" s="55">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s" s="23">
+        <v>118</v>
+      </c>
+      <c r="I12" t="s" s="54">
+        <v>92</v>
+      </c>
+      <c r="J12" t="s" s="52">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s" s="52">
+        <v>70</v>
+      </c>
+      <c r="L12" t="s" s="52">
+        <v>60</v>
+      </c>
+      <c r="M12" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="N12" s="42">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s" s="4">
         <v>120</v>
       </c>
-      <c r="E12" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="47">
-        <v>40</v>
-      </c>
-      <c r="G12" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="J12" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="K12" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="L12" s="47"/>
-      <c r="M12" s="9">
-        <v>3.2</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="O12" s="60" t="s">
-        <v>153</v>
-      </c>
       <c r="P12" s="9"/>
-      <c r="Q12" s="9">
-        <v>1</v>
-      </c>
-      <c r="R12" s="9">
-        <v>1</v>
-      </c>
-      <c r="S12" s="4" t="s">
+      <c r="Q12" s="42">
+        <v>1</v>
+      </c>
+      <c r="R12" s="42">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="42">
         <v>2</v>
       </c>
-      <c r="U12" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="V12" s="9">
-        <v>1</v>
-      </c>
-      <c r="W12" s="9">
+      <c r="U12" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="V12" s="42">
+        <v>1</v>
+      </c>
+      <c r="W12" s="42">
         <v>3</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X12" s="42">
         <v>999</v>
       </c>
       <c r="Y12" s="9"/>
@@ -3502,71 +3383,73 @@
       <c r="AF12" s="9"/>
       <c r="AG12" s="9"/>
     </row>
-    <row r="13" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47">
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51">
         <v>10</v>
       </c>
-      <c r="C13" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="59" t="s">
+      <c r="C13" t="s" s="52">
         <v>121</v>
       </c>
-      <c r="F13" s="47">
+      <c r="D13" t="s" s="52">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s" s="52">
+        <v>59</v>
+      </c>
+      <c r="F13" s="51">
         <v>24</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="G13" t="s" s="55">
+        <v>60</v>
+      </c>
+      <c r="H13" t="s" s="23">
+        <v>122</v>
+      </c>
+      <c r="I13" t="s" s="54">
         <v>123</v>
       </c>
-      <c r="H13" s="73" t="s">
+      <c r="J13" t="s" s="52">
+        <v>60</v>
+      </c>
+      <c r="K13" t="s" s="52">
+        <v>83</v>
+      </c>
+      <c r="L13" t="s" s="52">
+        <v>65</v>
+      </c>
+      <c r="M13" s="42">
+        <v>2</v>
+      </c>
+      <c r="N13" s="42">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s" s="4">
+        <v>124</v>
+      </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="42">
+        <v>1</v>
+      </c>
+      <c r="R13" s="42">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s" s="4">
         <v>125</v>
       </c>
-      <c r="I13" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="M13" s="9">
+      <c r="T13" s="42">
         <v>2</v>
       </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9">
-        <v>1</v>
-      </c>
-      <c r="R13" s="9">
-        <v>1</v>
-      </c>
-      <c r="S13" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="T13" s="9">
-        <v>2</v>
-      </c>
-      <c r="U13" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="V13" s="9">
+      <c r="U13" t="s" s="4">
+        <v>113</v>
+      </c>
+      <c r="V13" s="42">
         <v>0.8</v>
       </c>
-      <c r="W13" s="9">
-        <v>1</v>
-      </c>
-      <c r="X13" s="9">
+      <c r="W13" s="42">
+        <v>1</v>
+      </c>
+      <c r="X13" s="42">
         <v>999</v>
       </c>
       <c r="Y13" s="9"/>
@@ -3579,73 +3462,73 @@
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
     </row>
-    <row r="14" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47">
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" s="50"/>
+      <c r="B14" s="51">
         <v>11</v>
       </c>
-      <c r="C14" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="47">
+      <c r="C14" t="s" s="52">
+        <v>126</v>
+      </c>
+      <c r="D14" t="s" s="52">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s" s="52">
+        <v>59</v>
+      </c>
+      <c r="F14" s="51">
         <v>30</v>
       </c>
-      <c r="G14" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="I14" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="J14" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="K14" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="L14" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="M14" s="9">
+      <c r="G14" t="s" s="55">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s" s="23">
+        <v>127</v>
+      </c>
+      <c r="I14" t="s" s="54">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s" s="52">
+        <v>111</v>
+      </c>
+      <c r="K14" t="s" s="52">
+        <v>103</v>
+      </c>
+      <c r="L14" t="s" s="52">
+        <v>129</v>
+      </c>
+      <c r="M14" s="42">
         <v>4</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="42">
         <v>0</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="42">
         <v>11</v>
       </c>
       <c r="P14" s="9"/>
-      <c r="Q14" s="9">
-        <v>1</v>
-      </c>
-      <c r="R14" s="9">
-        <v>1</v>
-      </c>
-      <c r="S14" s="4" t="s">
+      <c r="Q14" s="42">
+        <v>1</v>
+      </c>
+      <c r="R14" s="42">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="42">
         <v>2</v>
       </c>
-      <c r="U14" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="V14" s="9">
+      <c r="U14" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="V14" s="42">
         <v>0.8</v>
       </c>
-      <c r="W14" s="9">
-        <v>1</v>
-      </c>
-      <c r="X14" s="9">
+      <c r="W14" s="42">
+        <v>1</v>
+      </c>
+      <c r="X14" s="42">
         <v>999</v>
       </c>
       <c r="Y14" s="9"/>
@@ -3658,71 +3541,73 @@
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
     </row>
-    <row r="15" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47">
+    <row r="15" ht="16" customHeight="1">
+      <c r="A15" s="50"/>
+      <c r="B15" s="51">
         <v>12</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" t="s" s="52">
+        <v>130</v>
+      </c>
+      <c r="D15" t="s" s="52">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s" s="52">
+        <v>59</v>
+      </c>
+      <c r="F15" s="51">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s" s="55">
+        <v>131</v>
+      </c>
+      <c r="H15" t="s" s="23">
+        <v>132</v>
+      </c>
+      <c r="I15" t="s" s="54">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s" s="52">
+        <v>60</v>
+      </c>
+      <c r="K15" t="s" s="52">
+        <v>70</v>
+      </c>
+      <c r="L15" t="s" s="52">
+        <v>129</v>
+      </c>
+      <c r="M15" s="42">
+        <v>2</v>
+      </c>
+      <c r="N15" s="42">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s" s="4">
         <v>134</v>
       </c>
-      <c r="D15" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="47">
-        <v>30</v>
-      </c>
-      <c r="G15" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="H15" s="73" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="L15" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="M15" s="9">
-        <v>2</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0</v>
-      </c>
-      <c r="O15" s="60" t="s">
-        <v>155</v>
-      </c>
       <c r="P15" s="9"/>
-      <c r="Q15" s="9">
-        <v>1</v>
-      </c>
-      <c r="R15" s="9">
-        <v>1</v>
-      </c>
-      <c r="S15" s="4" t="s">
+      <c r="Q15" s="42">
+        <v>1</v>
+      </c>
+      <c r="R15" s="42">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="42">
         <v>3.3</v>
       </c>
-      <c r="U15" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="V15" s="9">
+      <c r="U15" t="s" s="4">
+        <v>135</v>
+      </c>
+      <c r="V15" s="42">
         <v>0.8</v>
       </c>
-      <c r="W15" s="9">
-        <v>1</v>
-      </c>
-      <c r="X15" s="9">
+      <c r="W15" s="42">
+        <v>1</v>
+      </c>
+      <c r="X15" s="42">
         <v>999</v>
       </c>
       <c r="Y15" s="9"/>
@@ -3735,71 +3620,75 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
     </row>
-    <row r="16" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47">
+    <row r="16" ht="16" customHeight="1">
+      <c r="A16" s="50"/>
+      <c r="B16" s="51">
         <v>13</v>
       </c>
-      <c r="C16" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="47">
+      <c r="C16" t="s" s="52">
+        <v>136</v>
+      </c>
+      <c r="D16" t="s" s="52">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s" s="52">
+        <v>59</v>
+      </c>
+      <c r="F16" s="51">
         <v>60</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="G16" t="s" s="55">
+        <v>137</v>
+      </c>
+      <c r="H16" t="s" s="23">
         <v>138</v>
       </c>
-      <c r="H16" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="I16" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="9">
+      <c r="I16" t="s" s="54">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s" s="52">
+        <v>60</v>
+      </c>
+      <c r="K16" t="s" s="52">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s" s="52">
+        <v>60</v>
+      </c>
+      <c r="M16" s="42">
         <v>4</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="42">
         <v>0</v>
       </c>
-      <c r="O16" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="P16" s="9">
+      <c r="O16" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="P16" s="42">
         <v>33</v>
       </c>
-      <c r="Q16" s="9">
-        <v>1</v>
-      </c>
-      <c r="R16" s="9">
-        <v>1</v>
-      </c>
-      <c r="S16" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="T16" s="9">
+      <c r="Q16" s="42">
+        <v>1</v>
+      </c>
+      <c r="R16" s="42">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="T16" s="42">
         <v>0</v>
       </c>
-      <c r="U16" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="V16" s="9">
+      <c r="U16" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="V16" s="42">
         <v>0</v>
       </c>
-      <c r="W16" s="9">
+      <c r="W16" s="42">
         <v>0</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16" s="42">
         <v>999</v>
       </c>
       <c r="Y16" s="9"/>
@@ -3812,73 +3701,73 @@
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
     </row>
-    <row r="17" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48">
+    <row r="17" ht="16" customHeight="1">
+      <c r="A17" s="50"/>
+      <c r="B17" s="51">
         <v>14</v>
       </c>
-      <c r="C17" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="49" t="s">
+      <c r="C17" t="s" s="52">
+        <v>142</v>
+      </c>
+      <c r="D17" t="s" s="52">
         <v>89</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" t="s" s="52">
         <v>59</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="51">
         <v>14</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="G17" t="s" s="55">
         <v>60</v>
       </c>
-      <c r="H17" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="K17" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="L17" s="49" t="s">
+      <c r="H17" t="s" s="23">
+        <v>143</v>
+      </c>
+      <c r="I17" t="s" s="54">
+        <v>144</v>
+      </c>
+      <c r="J17" t="s" s="52">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s" s="52">
+        <v>140</v>
+      </c>
+      <c r="L17" t="s" s="52">
         <v>60</v>
       </c>
-      <c r="M17" s="40">
+      <c r="M17" s="42">
         <v>6</v>
       </c>
-      <c r="N17" s="40">
+      <c r="N17" s="42">
         <v>2</v>
       </c>
       <c r="O17" s="9"/>
-      <c r="P17" s="40">
+      <c r="P17" s="42">
         <v>34</v>
       </c>
-      <c r="Q17" s="40">
+      <c r="Q17" s="42">
         <v>2</v>
       </c>
-      <c r="R17" s="40">
-        <v>1</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="T17" s="40">
-        <v>1</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="V17" s="40">
-        <v>1</v>
-      </c>
-      <c r="W17" s="40">
+      <c r="R17" s="42">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s" s="4">
+        <v>146</v>
+      </c>
+      <c r="T17" s="42">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s" s="4">
+        <v>147</v>
+      </c>
+      <c r="V17" s="42">
+        <v>1</v>
+      </c>
+      <c r="W17" s="42">
         <v>2</v>
       </c>
-      <c r="X17" s="40">
+      <c r="X17" s="42">
         <v>999</v>
       </c>
       <c r="Y17" s="9"/>
@@ -3891,231 +3780,230 @@
       <c r="AF17" s="9"/>
       <c r="AG17" s="9"/>
     </row>
-    <row r="18" spans="1:33" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48">
+    <row r="18" ht="13.75" customHeight="1">
+      <c r="A18" s="50"/>
+      <c r="B18" s="51">
         <v>15</v>
       </c>
-      <c r="C18" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="49" t="s">
+      <c r="C18" t="s" s="52">
+        <v>148</v>
+      </c>
+      <c r="D18" t="s" s="52">
         <v>89</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" t="s" s="52">
         <v>59</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="51">
         <v>40</v>
       </c>
-      <c r="G18" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="73" t="s">
-        <v>161</v>
-      </c>
-      <c r="I18" s="70" t="s">
-        <v>162</v>
-      </c>
-      <c r="J18" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="K18" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="L18" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="M18" s="40">
+      <c r="G18" t="s" s="55">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s" s="23">
+        <v>149</v>
+      </c>
+      <c r="I18" t="s" s="54">
+        <v>74</v>
+      </c>
+      <c r="J18" t="s" s="52">
+        <v>145</v>
+      </c>
+      <c r="K18" t="s" s="52">
+        <v>140</v>
+      </c>
+      <c r="L18" t="s" s="52">
+        <v>60</v>
+      </c>
+      <c r="M18" s="42">
         <v>3.5</v>
       </c>
-      <c r="N18" s="40">
-        <v>1</v>
-      </c>
-      <c r="O18" s="9">
+      <c r="N18" s="42">
+        <v>1</v>
+      </c>
+      <c r="O18" s="42">
         <v>15</v>
       </c>
-      <c r="P18" s="40">
+      <c r="P18" s="42">
         <v>35</v>
       </c>
-      <c r="Q18" s="40">
-        <v>1</v>
-      </c>
-      <c r="R18" s="40">
-        <v>1</v>
-      </c>
-      <c r="S18" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="T18" s="40">
+      <c r="Q18" s="42">
+        <v>1</v>
+      </c>
+      <c r="R18" s="42">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="T18" s="42">
         <v>0</v>
       </c>
-      <c r="U18" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="V18" s="40">
+      <c r="U18" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="V18" s="42">
         <v>0</v>
       </c>
-      <c r="W18" s="40">
+      <c r="W18" s="42">
         <v>3</v>
       </c>
-      <c r="X18" s="40">
+      <c r="X18" s="42">
         <v>999</v>
       </c>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="51"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="58"/>
     </row>
-    <row r="19" spans="1:33" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="53"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="53"/>
-      <c r="AD19" s="53"/>
-      <c r="AE19" s="53"/>
-      <c r="AF19" s="53"/>
-      <c r="AG19" s="54"/>
+    <row r="19" ht="13.75" customHeight="1">
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="61"/>
     </row>
-    <row r="20" spans="1:33" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="53"/>
-      <c r="AD20" s="53"/>
-      <c r="AE20" s="53"/>
-      <c r="AF20" s="53"/>
-      <c r="AG20" s="54"/>
+    <row r="20" ht="13.75" customHeight="1">
+      <c r="A20" s="62"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="60"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="61"/>
     </row>
-    <row r="21" spans="1:33" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="53"/>
-      <c r="AE21" s="53"/>
-      <c r="AF21" s="53"/>
-      <c r="AG21" s="54"/>
+    <row r="21" ht="13.75" customHeight="1">
+      <c r="A21" s="62"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="60"/>
+      <c r="AG21" s="61"/>
     </row>
-    <row r="22" spans="1:33" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="57"/>
+    <row r="22" ht="13.75" customHeight="1">
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="64"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="64"/>
+      <c r="AE22" s="64"/>
+      <c r="AF22" s="64"/>
+      <c r="AG22" s="65"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/MakeAGame/LubanTool/GameConfig/Datas/Character.xlsx
+++ b/MakeAGame/LubanTool/GameConfig/Datas/Character.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
   <si>
     <t>##var</t>
   </si>
@@ -85,6 +85,9 @@
     <t>life</t>
   </si>
   <si>
+    <t>DeathFuncName</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
     <t>寿命（秒）</t>
   </si>
   <si>
+    <t>死面方法的类名</t>
+  </si>
+  <si>
     <t>弗朗西斯·维兰德·瑟斯顿</t>
   </si>
   <si>
@@ -223,6 +229,9 @@
     <t>Strength,0.1</t>
   </si>
   <si>
+    <t>Francis_Wayland_Thurston</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -250,6 +259,9 @@
     <t>Skill,0.05</t>
   </si>
   <si>
+    <t>Randolph_Carter</t>
+  </si>
+  <si>
     <t>阿比盖尔·米勒</t>
   </si>
   <si>
@@ -277,6 +289,9 @@
     <t>Spirit,0.02</t>
   </si>
   <si>
+    <t>Abigal_Miller</t>
+  </si>
+  <si>
     <t>D级员工</t>
   </si>
   <si>
@@ -295,6 +310,9 @@
     <t>Stamina,2</t>
   </si>
   <si>
+    <t>D_Ranked_Staff</t>
+  </si>
+  <si>
     <t>C级员工</t>
   </si>
   <si>
@@ -307,6 +325,9 @@
     <t>对3*3的格子造成20点伤害，25%的概率获得一张D级员工。</t>
   </si>
   <si>
+    <t>C_Ranked_Staff</t>
+  </si>
+  <si>
     <t>B级员工</t>
   </si>
   <si>
@@ -331,6 +352,9 @@
     <t>Charisma,0.01</t>
   </si>
   <si>
+    <t>B_Ranked_Staff</t>
+  </si>
+  <si>
     <t>A级员工</t>
   </si>
   <si>
@@ -353,6 +377,9 @@
   </si>
   <si>
     <t>Charisma,0.02</t>
+  </si>
+  <si>
+    <t>A_Ranked_Staff</t>
   </si>
   <si>
     <t>魔虫</t>
@@ -388,6 +415,9 @@
     <t>13</t>
   </si>
   <si>
+    <t>Devil_Bug</t>
+  </si>
+  <si>
     <t>猫头鹰</t>
   </si>
   <si>
@@ -400,6 +430,9 @@
     <t>13,14,19</t>
   </si>
   <si>
+    <t>Owl</t>
+  </si>
+  <si>
     <t>呱呱蛙</t>
   </si>
   <si>
@@ -415,6 +448,9 @@
     <t>Top,Down</t>
   </si>
   <si>
+    <t>Quack_Frog</t>
+  </si>
+  <si>
     <t>失败品</t>
   </si>
   <si>
@@ -427,6 +463,9 @@
     <t>Skill,1</t>
   </si>
   <si>
+    <t>Failure</t>
+  </si>
+  <si>
     <t>爱笑猫</t>
   </si>
   <si>
@@ -445,6 +484,9 @@
     <t>Charisma,0.04</t>
   </si>
   <si>
+    <t>Laughing_Cat</t>
+  </si>
+  <si>
     <t>渡鸦</t>
   </si>
   <si>
@@ -463,6 +505,9 @@
     <t>13,19</t>
   </si>
   <si>
+    <t>Raven</t>
+  </si>
+  <si>
     <t>藤曼</t>
   </si>
   <si>
@@ -481,10 +526,16 @@
     <t>Charisma,0.1</t>
   </si>
   <si>
+    <t>Vine</t>
+  </si>
+  <si>
     <t>水精</t>
   </si>
   <si>
     <t>为3*3格子内的友方单位回复20点生命值，如果该范围内有水，则回复25点。</t>
+  </si>
+  <si>
+    <t>Water_Wizard</t>
   </si>
 </sst>
 </file>
@@ -536,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1009,109 +1060,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1175,139 +1130,118 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2392,7 +2326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2494,7 +2428,9 @@
       <c r="X1" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="Y1" s="9"/>
+      <c r="Y1" t="s" s="4">
+        <v>24</v>
+      </c>
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
       <c r="AB1" s="9"/>
@@ -2506,78 +2442,80 @@
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="D2" t="s" s="11">
+      <c r="G2" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="E2" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s" s="14">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s" s="10">
+      <c r="I2" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s" s="16">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s" s="17">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s" s="18">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s" s="16">
         <v>26</v>
       </c>
-      <c r="I2" t="s" s="10">
+      <c r="R2" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s" s="12">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s" s="20">
+        <v>31</v>
+      </c>
+      <c r="U2" t="s" s="14">
         <v>30</v>
       </c>
-      <c r="J2" t="s" s="14">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s" s="14">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s" s="17">
+      <c r="V2" t="s" s="16">
         <v>31</v>
       </c>
-      <c r="P2" t="s" s="18">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s" s="16">
-        <v>25</v>
-      </c>
-      <c r="R2" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="S2" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="T2" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="U2" t="s" s="14">
-        <v>29</v>
-      </c>
-      <c r="V2" t="s" s="16">
-        <v>30</v>
-      </c>
       <c r="W2" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X2" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="Y2" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="Y2" t="s" s="21">
+        <v>27</v>
+      </c>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
@@ -2589,79 +2527,81 @@
     </row>
     <row r="3" ht="23.9" customHeight="1">
       <c r="A3" t="s" s="22">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="23">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="23">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s" s="24">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s" s="23">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="23">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s" s="23">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s" s="23">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s" s="23">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s" s="23">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s" s="23">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s" s="24">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s" s="24">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s" s="24">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s" s="24">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q3" t="s" s="24">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R3" t="s" s="24">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S3" t="s" s="24">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s" s="24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U3" t="s" s="23">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V3" t="s" s="24">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W3" t="s" s="24">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X3" t="s" s="25">
-        <v>56</v>
-      </c>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="27"/>
+        <v>57</v>
+      </c>
+      <c r="Y3" t="s" s="6">
+        <v>58</v>
+      </c>
+      <c r="Z3" s="26"/>
       <c r="AA3" s="9"/>
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
@@ -2672,76 +2612,78 @@
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="28">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s" s="29">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s" s="30">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s" s="31">
+      <c r="B4" s="27">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s" s="28">
         <v>59</v>
       </c>
-      <c r="F4" s="32">
+      <c r="D4" t="s" s="29">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s" s="30">
+        <v>61</v>
+      </c>
+      <c r="F4" s="31">
         <v>90</v>
       </c>
-      <c r="G4" t="s" s="29">
-        <v>60</v>
-      </c>
-      <c r="H4" t="s" s="33">
-        <v>61</v>
-      </c>
-      <c r="I4" t="s" s="29">
+      <c r="G4" t="s" s="28">
         <v>62</v>
       </c>
-      <c r="J4" t="s" s="29">
+      <c r="H4" t="s" s="32">
         <v>63</v>
       </c>
-      <c r="K4" t="s" s="29">
+      <c r="I4" t="s" s="28">
         <v>64</v>
       </c>
-      <c r="L4" t="s" s="29">
+      <c r="J4" t="s" s="28">
         <v>65</v>
       </c>
-      <c r="M4" s="34">
+      <c r="K4" t="s" s="28">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s" s="28">
+        <v>67</v>
+      </c>
+      <c r="M4" s="33">
         <v>4</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4" s="34">
         <v>2</v>
       </c>
-      <c r="O4" t="s" s="31">
-        <v>66</v>
-      </c>
-      <c r="P4" t="s" s="31">
-        <v>67</v>
-      </c>
-      <c r="Q4" s="36">
-        <v>1</v>
-      </c>
-      <c r="R4" s="36">
-        <v>1</v>
-      </c>
-      <c r="S4" t="s" s="31">
+      <c r="O4" t="s" s="30">
         <v>68</v>
       </c>
-      <c r="T4" s="36">
+      <c r="P4" t="s" s="30">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="35">
+        <v>1</v>
+      </c>
+      <c r="R4" s="35">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="T4" s="35">
         <v>1.25</v>
       </c>
-      <c r="U4" t="s" s="31">
-        <v>69</v>
-      </c>
-      <c r="V4" s="36">
+      <c r="U4" t="s" s="30">
+        <v>71</v>
+      </c>
+      <c r="V4" s="35">
         <v>0.9</v>
       </c>
-      <c r="W4" s="36">
-        <v>1</v>
-      </c>
-      <c r="X4" s="36">
+      <c r="W4" s="35">
+        <v>1</v>
+      </c>
+      <c r="X4" s="35">
         <v>999</v>
       </c>
-      <c r="Y4" s="37"/>
+      <c r="Y4" t="s" s="36">
+        <v>72</v>
+      </c>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
@@ -2754,75 +2696,77 @@
     <row r="5" ht="16" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s" s="4">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s" s="5">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s" s="22">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s" s="23">
+        <v>76</v>
+      </c>
+      <c r="I5" t="s" s="37">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="K5" s="38">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M5" s="39">
+        <v>1</v>
+      </c>
+      <c r="N5" s="40">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s" s="4">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="41">
+        <v>1</v>
+      </c>
+      <c r="R5" s="41">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s" s="4">
         <v>70</v>
       </c>
-      <c r="C5" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s" s="4">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s" s="5">
-        <v>72</v>
-      </c>
-      <c r="G5" t="s" s="22">
-        <v>60</v>
-      </c>
-      <c r="H5" t="s" s="23">
-        <v>73</v>
-      </c>
-      <c r="I5" t="s" s="38">
-        <v>74</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="K5" s="39">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M5" s="40">
-        <v>1</v>
-      </c>
-      <c r="N5" s="41">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s" s="4">
-        <v>76</v>
-      </c>
-      <c r="P5" t="s" s="4">
-        <v>77</v>
-      </c>
-      <c r="Q5" s="42">
-        <v>1</v>
-      </c>
-      <c r="R5" s="42">
-        <v>1</v>
-      </c>
-      <c r="S5" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="T5" s="42">
+      <c r="T5" s="41">
         <v>1.25</v>
       </c>
       <c r="U5" t="s" s="4">
-        <v>78</v>
-      </c>
-      <c r="V5" s="42">
+        <v>81</v>
+      </c>
+      <c r="V5" s="41">
         <v>0.7</v>
       </c>
-      <c r="W5" s="42">
+      <c r="W5" s="41">
         <v>2</v>
       </c>
-      <c r="X5" s="42">
+      <c r="X5" s="41">
         <v>999</v>
       </c>
-      <c r="Y5" s="9"/>
+      <c r="Y5" t="s" s="4">
+        <v>82</v>
+      </c>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
@@ -2833,77 +2777,79 @@
       <c r="AG5" s="9"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43">
         <v>3</v>
       </c>
-      <c r="C6" t="s" s="45">
-        <v>79</v>
+      <c r="C6" t="s" s="44">
+        <v>83</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s" s="46">
-        <v>59</v>
-      </c>
-      <c r="F6" s="47">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s" s="45">
+        <v>61</v>
+      </c>
+      <c r="F6" s="46">
         <v>90</v>
       </c>
       <c r="G6" t="s" s="22">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s" s="23">
-        <v>80</v>
-      </c>
-      <c r="I6" t="s" s="48">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s" s="43">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s" s="43">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s" s="43">
         <v>84</v>
       </c>
-      <c r="M6" s="49">
+      <c r="I6" t="s" s="47">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s" s="42">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s" s="42">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s" s="42">
+        <v>88</v>
+      </c>
+      <c r="M6" s="48">
         <v>5</v>
       </c>
-      <c r="N6" s="42">
+      <c r="N6" s="41">
         <v>0</v>
       </c>
       <c r="O6" t="s" s="4">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s" s="4">
-        <v>86</v>
-      </c>
-      <c r="Q6" s="42">
-        <v>1</v>
-      </c>
-      <c r="R6" s="42">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="41">
+        <v>1</v>
+      </c>
+      <c r="R6" s="41">
         <v>1</v>
       </c>
       <c r="S6" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="T6" s="42">
+        <v>70</v>
+      </c>
+      <c r="T6" s="41">
         <v>1.25</v>
       </c>
       <c r="U6" t="s" s="4">
-        <v>87</v>
-      </c>
-      <c r="V6" s="42">
+        <v>91</v>
+      </c>
+      <c r="V6" s="41">
         <v>0.7</v>
       </c>
-      <c r="W6" s="42">
+      <c r="W6" s="41">
         <v>2</v>
       </c>
-      <c r="X6" s="42">
+      <c r="X6" s="41">
         <v>999</v>
       </c>
-      <c r="Y6" s="9"/>
+      <c r="Y6" t="s" s="4">
+        <v>92</v>
+      </c>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
@@ -2914,73 +2860,75 @@
       <c r="AG6" s="9"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51">
+      <c r="A7" s="49"/>
+      <c r="B7" s="50">
         <v>4</v>
       </c>
-      <c r="C7" t="s" s="52">
-        <v>88</v>
-      </c>
-      <c r="D7" t="s" s="43">
-        <v>89</v>
-      </c>
-      <c r="E7" t="s" s="52">
-        <v>59</v>
-      </c>
-      <c r="F7" s="51">
+      <c r="C7" t="s" s="51">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s" s="42">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s" s="51">
+        <v>61</v>
+      </c>
+      <c r="F7" s="50">
         <v>20</v>
       </c>
-      <c r="G7" t="s" s="53">
-        <v>90</v>
+      <c r="G7" t="s" s="52">
+        <v>95</v>
       </c>
       <c r="H7" t="s" s="23">
-        <v>91</v>
-      </c>
-      <c r="I7" t="s" s="54">
-        <v>92</v>
-      </c>
-      <c r="J7" t="s" s="52">
-        <v>93</v>
-      </c>
-      <c r="K7" t="s" s="52">
-        <v>83</v>
-      </c>
-      <c r="L7" t="s" s="52">
-        <v>60</v>
-      </c>
-      <c r="M7" s="42">
+        <v>96</v>
+      </c>
+      <c r="I7" t="s" s="53">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s" s="51">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s" s="51">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s" s="51">
+        <v>62</v>
+      </c>
+      <c r="M7" s="41">
         <v>3.5</v>
       </c>
-      <c r="N7" s="42">
+      <c r="N7" s="41">
         <v>0</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="42">
-        <v>1</v>
-      </c>
-      <c r="R7" s="42">
+      <c r="Q7" s="41">
+        <v>1</v>
+      </c>
+      <c r="R7" s="41">
         <v>1</v>
       </c>
       <c r="S7" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="T7" s="42">
+        <v>70</v>
+      </c>
+      <c r="T7" s="41">
         <v>2</v>
       </c>
       <c r="U7" t="s" s="4">
-        <v>60</v>
-      </c>
-      <c r="V7" s="42">
+        <v>62</v>
+      </c>
+      <c r="V7" s="41">
         <v>0.6</v>
       </c>
-      <c r="W7" s="42">
-        <v>1</v>
-      </c>
-      <c r="X7" s="42">
+      <c r="W7" s="41">
+        <v>1</v>
+      </c>
+      <c r="X7" s="41">
         <v>999</v>
       </c>
-      <c r="Y7" s="9"/>
+      <c r="Y7" t="s" s="4">
+        <v>99</v>
+      </c>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
@@ -2991,75 +2939,77 @@
       <c r="AG7" s="9"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51">
+      <c r="A8" s="49"/>
+      <c r="B8" s="50">
         <v>5</v>
       </c>
-      <c r="C8" t="s" s="52">
-        <v>94</v>
-      </c>
-      <c r="D8" t="s" s="52">
-        <v>95</v>
-      </c>
-      <c r="E8" t="s" s="52">
-        <v>59</v>
-      </c>
-      <c r="F8" s="51">
+      <c r="C8" t="s" s="51">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s" s="51">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s" s="51">
+        <v>61</v>
+      </c>
+      <c r="F8" s="50">
         <v>20</v>
       </c>
-      <c r="G8" t="s" s="55">
-        <v>96</v>
+      <c r="G8" t="s" s="54">
+        <v>102</v>
       </c>
       <c r="H8" t="s" s="23">
-        <v>97</v>
-      </c>
-      <c r="I8" t="s" s="54">
-        <v>74</v>
-      </c>
-      <c r="J8" t="s" s="52">
-        <v>93</v>
-      </c>
-      <c r="K8" t="s" s="52">
-        <v>83</v>
-      </c>
-      <c r="L8" t="s" s="52">
-        <v>60</v>
-      </c>
-      <c r="M8" s="42">
+        <v>103</v>
+      </c>
+      <c r="I8" t="s" s="53">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s" s="51">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s" s="51">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s" s="51">
+        <v>62</v>
+      </c>
+      <c r="M8" s="41">
         <v>3.5</v>
       </c>
-      <c r="N8" s="42">
-        <v>1</v>
-      </c>
-      <c r="O8" s="42">
+      <c r="N8" s="41">
+        <v>1</v>
+      </c>
+      <c r="O8" s="41">
         <v>6</v>
       </c>
       <c r="P8" s="9"/>
-      <c r="Q8" s="42">
-        <v>1</v>
-      </c>
-      <c r="R8" s="42">
+      <c r="Q8" s="41">
+        <v>1</v>
+      </c>
+      <c r="R8" s="41">
         <v>1</v>
       </c>
       <c r="S8" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="T8" s="42">
+        <v>70</v>
+      </c>
+      <c r="T8" s="41">
         <v>1.7</v>
       </c>
       <c r="U8" t="s" s="4">
-        <v>60</v>
-      </c>
-      <c r="V8" s="42">
+        <v>62</v>
+      </c>
+      <c r="V8" s="41">
         <v>0.7</v>
       </c>
-      <c r="W8" s="42">
-        <v>1</v>
-      </c>
-      <c r="X8" s="42">
+      <c r="W8" s="41">
+        <v>1</v>
+      </c>
+      <c r="X8" s="41">
         <v>999</v>
       </c>
-      <c r="Y8" s="9"/>
+      <c r="Y8" t="s" s="4">
+        <v>104</v>
+      </c>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
@@ -3070,75 +3020,77 @@
       <c r="AG8" s="9"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51">
+      <c r="A9" s="49"/>
+      <c r="B9" s="50">
         <v>6</v>
       </c>
-      <c r="C9" t="s" s="52">
-        <v>98</v>
-      </c>
-      <c r="D9" t="s" s="52">
-        <v>99</v>
-      </c>
-      <c r="E9" t="s" s="52">
-        <v>59</v>
-      </c>
-      <c r="F9" s="51">
+      <c r="C9" t="s" s="51">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s" s="51">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s" s="51">
+        <v>61</v>
+      </c>
+      <c r="F9" s="50">
         <v>20</v>
       </c>
-      <c r="G9" t="s" s="55">
-        <v>100</v>
+      <c r="G9" t="s" s="54">
+        <v>107</v>
       </c>
       <c r="H9" t="s" s="23">
-        <v>101</v>
-      </c>
-      <c r="I9" t="s" s="54">
-        <v>81</v>
-      </c>
-      <c r="J9" t="s" s="52">
-        <v>102</v>
-      </c>
-      <c r="K9" t="s" s="52">
-        <v>103</v>
-      </c>
-      <c r="L9" t="s" s="52">
-        <v>60</v>
-      </c>
-      <c r="M9" s="42">
+        <v>108</v>
+      </c>
+      <c r="I9" t="s" s="53">
+        <v>85</v>
+      </c>
+      <c r="J9" t="s" s="51">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s" s="51">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s" s="51">
+        <v>62</v>
+      </c>
+      <c r="M9" s="41">
         <v>2.5</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="41">
         <v>2</v>
       </c>
       <c r="O9" t="s" s="4">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P9" s="9"/>
-      <c r="Q9" s="42">
-        <v>1</v>
-      </c>
-      <c r="R9" s="42">
+      <c r="Q9" s="41">
+        <v>1</v>
+      </c>
+      <c r="R9" s="41">
         <v>1</v>
       </c>
       <c r="S9" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="T9" s="42">
+        <v>70</v>
+      </c>
+      <c r="T9" s="41">
         <v>1.7</v>
       </c>
       <c r="U9" t="s" s="4">
-        <v>105</v>
-      </c>
-      <c r="V9" s="42">
+        <v>112</v>
+      </c>
+      <c r="V9" s="41">
         <v>0.8</v>
       </c>
-      <c r="W9" s="42">
-        <v>1</v>
-      </c>
-      <c r="X9" s="42">
+      <c r="W9" s="41">
+        <v>1</v>
+      </c>
+      <c r="X9" s="41">
         <v>999</v>
       </c>
-      <c r="Y9" s="9"/>
+      <c r="Y9" t="s" s="4">
+        <v>113</v>
+      </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
@@ -3149,75 +3101,77 @@
       <c r="AG9" s="9"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51">
+      <c r="A10" s="49"/>
+      <c r="B10" s="50">
         <v>7</v>
       </c>
-      <c r="C10" t="s" s="52">
-        <v>106</v>
-      </c>
-      <c r="D10" t="s" s="52">
-        <v>107</v>
-      </c>
-      <c r="E10" t="s" s="52">
-        <v>59</v>
-      </c>
-      <c r="F10" s="51">
+      <c r="C10" t="s" s="51">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s" s="51">
+        <v>115</v>
+      </c>
+      <c r="E10" t="s" s="51">
+        <v>61</v>
+      </c>
+      <c r="F10" s="50">
         <v>20</v>
       </c>
-      <c r="G10" t="s" s="55">
-        <v>108</v>
+      <c r="G10" t="s" s="54">
+        <v>116</v>
       </c>
       <c r="H10" t="s" s="23">
-        <v>109</v>
-      </c>
-      <c r="I10" t="s" s="54">
-        <v>110</v>
-      </c>
-      <c r="J10" t="s" s="52">
-        <v>111</v>
-      </c>
-      <c r="K10" t="s" s="52">
-        <v>64</v>
-      </c>
-      <c r="L10" t="s" s="52">
-        <v>60</v>
-      </c>
-      <c r="M10" s="42">
+        <v>117</v>
+      </c>
+      <c r="I10" t="s" s="53">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s" s="51">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s" s="51">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s" s="51">
+        <v>62</v>
+      </c>
+      <c r="M10" s="41">
         <v>2.5</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="41">
         <v>2</v>
       </c>
       <c r="O10" t="s" s="4">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P10" s="9"/>
-      <c r="Q10" s="42">
-        <v>1</v>
-      </c>
-      <c r="R10" s="42">
+      <c r="Q10" s="41">
+        <v>1</v>
+      </c>
+      <c r="R10" s="41">
         <v>1</v>
       </c>
       <c r="S10" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="T10" s="42">
+        <v>70</v>
+      </c>
+      <c r="T10" s="41">
         <v>1.7</v>
       </c>
       <c r="U10" t="s" s="4">
-        <v>113</v>
-      </c>
-      <c r="V10" s="42">
+        <v>121</v>
+      </c>
+      <c r="V10" s="41">
         <v>0.9</v>
       </c>
-      <c r="W10" s="42">
-        <v>1</v>
-      </c>
-      <c r="X10" s="42">
+      <c r="W10" s="41">
+        <v>1</v>
+      </c>
+      <c r="X10" s="41">
         <v>999</v>
       </c>
-      <c r="Y10" s="9"/>
+      <c r="Y10" t="s" s="4">
+        <v>122</v>
+      </c>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
@@ -3228,73 +3182,75 @@
       <c r="AG10" s="9"/>
     </row>
     <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51">
+      <c r="A11" s="49"/>
+      <c r="B11" s="50">
         <v>8</v>
       </c>
-      <c r="C11" t="s" s="52">
-        <v>114</v>
-      </c>
-      <c r="D11" t="s" s="52">
-        <v>89</v>
-      </c>
-      <c r="E11" t="s" s="52">
-        <v>59</v>
-      </c>
-      <c r="F11" s="51">
+      <c r="C11" t="s" s="51">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s" s="51">
+        <v>94</v>
+      </c>
+      <c r="E11" t="s" s="51">
+        <v>61</v>
+      </c>
+      <c r="F11" s="50">
         <v>12</v>
       </c>
-      <c r="G11" t="s" s="55">
-        <v>60</v>
+      <c r="G11" t="s" s="54">
+        <v>62</v>
       </c>
       <c r="H11" t="s" s="23">
-        <v>115</v>
-      </c>
-      <c r="I11" t="s" s="54">
-        <v>116</v>
-      </c>
-      <c r="J11" t="s" s="52">
-        <v>60</v>
-      </c>
-      <c r="K11" t="s" s="52">
-        <v>83</v>
-      </c>
-      <c r="L11" t="s" s="52">
-        <v>65</v>
-      </c>
-      <c r="M11" s="42">
+        <v>124</v>
+      </c>
+      <c r="I11" t="s" s="53">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s" s="51">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s" s="51">
+        <v>87</v>
+      </c>
+      <c r="L11" t="s" s="51">
+        <v>67</v>
+      </c>
+      <c r="M11" s="41">
         <v>2.5</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11" s="41">
         <v>0</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
-      <c r="Q11" s="42">
-        <v>1</v>
-      </c>
-      <c r="R11" s="42">
+      <c r="Q11" s="41">
+        <v>1</v>
+      </c>
+      <c r="R11" s="41">
         <v>1</v>
       </c>
       <c r="S11" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="T11" s="42">
+        <v>70</v>
+      </c>
+      <c r="T11" s="41">
         <v>2.5</v>
       </c>
       <c r="U11" t="s" s="4">
-        <v>60</v>
-      </c>
-      <c r="V11" s="42">
+        <v>62</v>
+      </c>
+      <c r="V11" s="41">
         <v>0.5</v>
       </c>
-      <c r="W11" s="42">
+      <c r="W11" s="41">
         <v>5</v>
       </c>
-      <c r="X11" s="42">
+      <c r="X11" s="41">
         <v>999</v>
       </c>
-      <c r="Y11" s="9"/>
+      <c r="Y11" t="s" s="4">
+        <v>126</v>
+      </c>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
@@ -3305,75 +3261,77 @@
       <c r="AG11" s="9"/>
     </row>
     <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51">
+      <c r="A12" s="49"/>
+      <c r="B12" s="50">
         <v>9</v>
       </c>
-      <c r="C12" t="s" s="52">
-        <v>117</v>
-      </c>
-      <c r="D12" t="s" s="52">
-        <v>89</v>
-      </c>
-      <c r="E12" t="s" s="52">
-        <v>59</v>
-      </c>
-      <c r="F12" s="51">
+      <c r="C12" t="s" s="51">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s" s="51">
+        <v>94</v>
+      </c>
+      <c r="E12" t="s" s="51">
+        <v>61</v>
+      </c>
+      <c r="F12" s="50">
         <v>40</v>
       </c>
-      <c r="G12" t="s" s="55">
-        <v>96</v>
+      <c r="G12" t="s" s="54">
+        <v>102</v>
       </c>
       <c r="H12" t="s" s="23">
-        <v>118</v>
-      </c>
-      <c r="I12" t="s" s="54">
-        <v>92</v>
-      </c>
-      <c r="J12" t="s" s="52">
-        <v>119</v>
-      </c>
-      <c r="K12" t="s" s="52">
+        <v>128</v>
+      </c>
+      <c r="I12" t="s" s="53">
+        <v>97</v>
+      </c>
+      <c r="J12" t="s" s="51">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s" s="51">
+        <v>73</v>
+      </c>
+      <c r="L12" t="s" s="51">
+        <v>62</v>
+      </c>
+      <c r="M12" s="41">
+        <v>3.2</v>
+      </c>
+      <c r="N12" s="41">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s" s="4">
+        <v>130</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="41">
+        <v>1</v>
+      </c>
+      <c r="R12" s="41">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s" s="4">
         <v>70</v>
       </c>
-      <c r="L12" t="s" s="52">
-        <v>60</v>
-      </c>
-      <c r="M12" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="N12" s="42">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s" s="4">
-        <v>120</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="42">
-        <v>1</v>
-      </c>
-      <c r="R12" s="42">
-        <v>1</v>
-      </c>
-      <c r="S12" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="T12" s="42">
+      <c r="T12" s="41">
         <v>2</v>
       </c>
       <c r="U12" t="s" s="4">
-        <v>60</v>
-      </c>
-      <c r="V12" s="42">
-        <v>1</v>
-      </c>
-      <c r="W12" s="42">
+        <v>62</v>
+      </c>
+      <c r="V12" s="41">
+        <v>1</v>
+      </c>
+      <c r="W12" s="41">
         <v>3</v>
       </c>
-      <c r="X12" s="42">
+      <c r="X12" s="41">
         <v>999</v>
       </c>
-      <c r="Y12" s="9"/>
+      <c r="Y12" t="s" s="4">
+        <v>131</v>
+      </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -3384,75 +3342,77 @@
       <c r="AG12" s="9"/>
     </row>
     <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="52">
+      <c r="C13" t="s" s="51">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s" s="51">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s" s="51">
+        <v>61</v>
+      </c>
+      <c r="F13" s="50">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s" s="54">
+        <v>62</v>
+      </c>
+      <c r="H13" t="s" s="23">
+        <v>133</v>
+      </c>
+      <c r="I13" t="s" s="53">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s" s="51">
+        <v>62</v>
+      </c>
+      <c r="K13" t="s" s="51">
+        <v>87</v>
+      </c>
+      <c r="L13" t="s" s="51">
+        <v>67</v>
+      </c>
+      <c r="M13" s="41">
+        <v>2</v>
+      </c>
+      <c r="N13" s="41">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s" s="4">
+        <v>135</v>
+      </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="41">
+        <v>1</v>
+      </c>
+      <c r="R13" s="41">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s" s="4">
+        <v>136</v>
+      </c>
+      <c r="T13" s="41">
+        <v>2</v>
+      </c>
+      <c r="U13" t="s" s="4">
         <v>121</v>
       </c>
-      <c r="D13" t="s" s="52">
-        <v>89</v>
-      </c>
-      <c r="E13" t="s" s="52">
-        <v>59</v>
-      </c>
-      <c r="F13" s="51">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s" s="55">
-        <v>60</v>
-      </c>
-      <c r="H13" t="s" s="23">
-        <v>122</v>
-      </c>
-      <c r="I13" t="s" s="54">
-        <v>123</v>
-      </c>
-      <c r="J13" t="s" s="52">
-        <v>60</v>
-      </c>
-      <c r="K13" t="s" s="52">
-        <v>83</v>
-      </c>
-      <c r="L13" t="s" s="52">
-        <v>65</v>
-      </c>
-      <c r="M13" s="42">
-        <v>2</v>
-      </c>
-      <c r="N13" s="42">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s" s="4">
-        <v>124</v>
-      </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="42">
-        <v>1</v>
-      </c>
-      <c r="R13" s="42">
-        <v>1</v>
-      </c>
-      <c r="S13" t="s" s="4">
-        <v>125</v>
-      </c>
-      <c r="T13" s="42">
-        <v>2</v>
-      </c>
-      <c r="U13" t="s" s="4">
-        <v>113</v>
-      </c>
-      <c r="V13" s="42">
+      <c r="V13" s="41">
         <v>0.8</v>
       </c>
-      <c r="W13" s="42">
-        <v>1</v>
-      </c>
-      <c r="X13" s="42">
+      <c r="W13" s="41">
+        <v>1</v>
+      </c>
+      <c r="X13" s="41">
         <v>999</v>
       </c>
-      <c r="Y13" s="9"/>
+      <c r="Y13" t="s" s="4">
+        <v>137</v>
+      </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -3463,75 +3423,77 @@
       <c r="AG13" s="9"/>
     </row>
     <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51">
+      <c r="A14" s="49"/>
+      <c r="B14" s="50">
         <v>11</v>
       </c>
-      <c r="C14" t="s" s="52">
-        <v>126</v>
-      </c>
-      <c r="D14" t="s" s="52">
-        <v>89</v>
-      </c>
-      <c r="E14" t="s" s="52">
-        <v>59</v>
-      </c>
-      <c r="F14" s="51">
+      <c r="C14" t="s" s="51">
+        <v>138</v>
+      </c>
+      <c r="D14" t="s" s="51">
+        <v>94</v>
+      </c>
+      <c r="E14" t="s" s="51">
+        <v>61</v>
+      </c>
+      <c r="F14" s="50">
         <v>30</v>
       </c>
-      <c r="G14" t="s" s="55">
-        <v>96</v>
+      <c r="G14" t="s" s="54">
+        <v>102</v>
       </c>
       <c r="H14" t="s" s="23">
-        <v>127</v>
-      </c>
-      <c r="I14" t="s" s="54">
-        <v>128</v>
-      </c>
-      <c r="J14" t="s" s="52">
-        <v>111</v>
-      </c>
-      <c r="K14" t="s" s="52">
-        <v>103</v>
-      </c>
-      <c r="L14" t="s" s="52">
-        <v>129</v>
-      </c>
-      <c r="M14" s="42">
+        <v>139</v>
+      </c>
+      <c r="I14" t="s" s="53">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s" s="51">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s" s="51">
+        <v>110</v>
+      </c>
+      <c r="L14" t="s" s="51">
+        <v>141</v>
+      </c>
+      <c r="M14" s="41">
         <v>4</v>
       </c>
-      <c r="N14" s="42">
+      <c r="N14" s="41">
         <v>0</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="41">
         <v>11</v>
       </c>
       <c r="P14" s="9"/>
-      <c r="Q14" s="42">
-        <v>1</v>
-      </c>
-      <c r="R14" s="42">
+      <c r="Q14" s="41">
+        <v>1</v>
+      </c>
+      <c r="R14" s="41">
         <v>1</v>
       </c>
       <c r="S14" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="T14" s="42">
+        <v>70</v>
+      </c>
+      <c r="T14" s="41">
         <v>2</v>
       </c>
       <c r="U14" t="s" s="4">
-        <v>60</v>
-      </c>
-      <c r="V14" s="42">
+        <v>62</v>
+      </c>
+      <c r="V14" s="41">
         <v>0.8</v>
       </c>
-      <c r="W14" s="42">
-        <v>1</v>
-      </c>
-      <c r="X14" s="42">
+      <c r="W14" s="41">
+        <v>1</v>
+      </c>
+      <c r="X14" s="41">
         <v>999</v>
       </c>
-      <c r="Y14" s="9"/>
+      <c r="Y14" t="s" s="4">
+        <v>142</v>
+      </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -3542,75 +3504,77 @@
       <c r="AG14" s="9"/>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51">
+      <c r="A15" s="49"/>
+      <c r="B15" s="50">
         <v>12</v>
       </c>
-      <c r="C15" t="s" s="52">
-        <v>130</v>
-      </c>
-      <c r="D15" t="s" s="52">
-        <v>89</v>
-      </c>
-      <c r="E15" t="s" s="52">
-        <v>59</v>
-      </c>
-      <c r="F15" s="51">
+      <c r="C15" t="s" s="51">
+        <v>143</v>
+      </c>
+      <c r="D15" t="s" s="51">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s" s="51">
+        <v>61</v>
+      </c>
+      <c r="F15" s="50">
         <v>30</v>
       </c>
-      <c r="G15" t="s" s="55">
-        <v>131</v>
+      <c r="G15" t="s" s="54">
+        <v>144</v>
       </c>
       <c r="H15" t="s" s="23">
-        <v>132</v>
-      </c>
-      <c r="I15" t="s" s="54">
-        <v>133</v>
-      </c>
-      <c r="J15" t="s" s="52">
-        <v>60</v>
-      </c>
-      <c r="K15" t="s" s="52">
+        <v>145</v>
+      </c>
+      <c r="I15" t="s" s="53">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s" s="51">
+        <v>62</v>
+      </c>
+      <c r="K15" t="s" s="51">
+        <v>73</v>
+      </c>
+      <c r="L15" t="s" s="51">
+        <v>141</v>
+      </c>
+      <c r="M15" s="41">
+        <v>2</v>
+      </c>
+      <c r="N15" s="41">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s" s="4">
+        <v>147</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="41">
+        <v>1</v>
+      </c>
+      <c r="R15" s="41">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s" s="4">
         <v>70</v>
       </c>
-      <c r="L15" t="s" s="52">
-        <v>129</v>
-      </c>
-      <c r="M15" s="42">
-        <v>2</v>
-      </c>
-      <c r="N15" s="42">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s" s="4">
-        <v>134</v>
-      </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="42">
-        <v>1</v>
-      </c>
-      <c r="R15" s="42">
-        <v>1</v>
-      </c>
-      <c r="S15" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="T15" s="42">
+      <c r="T15" s="41">
         <v>3.3</v>
       </c>
       <c r="U15" t="s" s="4">
-        <v>135</v>
-      </c>
-      <c r="V15" s="42">
+        <v>148</v>
+      </c>
+      <c r="V15" s="41">
         <v>0.8</v>
       </c>
-      <c r="W15" s="42">
-        <v>1</v>
-      </c>
-      <c r="X15" s="42">
+      <c r="W15" s="41">
+        <v>1</v>
+      </c>
+      <c r="X15" s="41">
         <v>999</v>
       </c>
-      <c r="Y15" s="9"/>
+      <c r="Y15" t="s" s="4">
+        <v>149</v>
+      </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -3621,77 +3585,79 @@
       <c r="AG15" s="9"/>
     </row>
     <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51">
+      <c r="A16" s="49"/>
+      <c r="B16" s="50">
         <v>13</v>
       </c>
-      <c r="C16" t="s" s="52">
-        <v>136</v>
-      </c>
-      <c r="D16" t="s" s="52">
-        <v>89</v>
-      </c>
-      <c r="E16" t="s" s="52">
-        <v>59</v>
-      </c>
-      <c r="F16" s="51">
+      <c r="C16" t="s" s="51">
+        <v>150</v>
+      </c>
+      <c r="D16" t="s" s="51">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s" s="51">
+        <v>61</v>
+      </c>
+      <c r="F16" s="50">
         <v>60</v>
       </c>
-      <c r="G16" t="s" s="55">
-        <v>137</v>
+      <c r="G16" t="s" s="54">
+        <v>151</v>
       </c>
       <c r="H16" t="s" s="23">
-        <v>138</v>
-      </c>
-      <c r="I16" t="s" s="54">
-        <v>139</v>
-      </c>
-      <c r="J16" t="s" s="52">
-        <v>60</v>
-      </c>
-      <c r="K16" t="s" s="52">
-        <v>140</v>
-      </c>
-      <c r="L16" t="s" s="52">
-        <v>60</v>
-      </c>
-      <c r="M16" s="42">
+        <v>152</v>
+      </c>
+      <c r="I16" t="s" s="53">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s" s="51">
+        <v>62</v>
+      </c>
+      <c r="K16" t="s" s="51">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s" s="51">
+        <v>62</v>
+      </c>
+      <c r="M16" s="41">
         <v>4</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16" s="41">
         <v>0</v>
       </c>
       <c r="O16" t="s" s="4">
-        <v>141</v>
-      </c>
-      <c r="P16" s="42">
+        <v>155</v>
+      </c>
+      <c r="P16" s="41">
         <v>33</v>
       </c>
-      <c r="Q16" s="42">
-        <v>1</v>
-      </c>
-      <c r="R16" s="42">
+      <c r="Q16" s="41">
+        <v>1</v>
+      </c>
+      <c r="R16" s="41">
         <v>1</v>
       </c>
       <c r="S16" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="T16" s="42">
+        <v>70</v>
+      </c>
+      <c r="T16" s="41">
         <v>0</v>
       </c>
       <c r="U16" t="s" s="4">
-        <v>60</v>
-      </c>
-      <c r="V16" s="42">
+        <v>62</v>
+      </c>
+      <c r="V16" s="41">
         <v>0</v>
       </c>
-      <c r="W16" s="42">
+      <c r="W16" s="41">
         <v>0</v>
       </c>
-      <c r="X16" s="42">
+      <c r="X16" s="41">
         <v>999</v>
       </c>
-      <c r="Y16" s="9"/>
+      <c r="Y16" t="s" s="4">
+        <v>156</v>
+      </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -3702,304 +3668,168 @@
       <c r="AG16" s="9"/>
     </row>
     <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51">
+      <c r="A17" s="49"/>
+      <c r="B17" s="50">
         <v>14</v>
       </c>
-      <c r="C17" t="s" s="52">
-        <v>142</v>
-      </c>
-      <c r="D17" t="s" s="52">
-        <v>89</v>
-      </c>
-      <c r="E17" t="s" s="52">
-        <v>59</v>
-      </c>
-      <c r="F17" s="51">
+      <c r="C17" t="s" s="51">
+        <v>157</v>
+      </c>
+      <c r="D17" t="s" s="51">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s" s="51">
+        <v>61</v>
+      </c>
+      <c r="F17" s="50">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="55">
-        <v>60</v>
+      <c r="G17" t="s" s="54">
+        <v>62</v>
       </c>
       <c r="H17" t="s" s="23">
-        <v>143</v>
-      </c>
-      <c r="I17" t="s" s="54">
-        <v>144</v>
-      </c>
-      <c r="J17" t="s" s="52">
-        <v>145</v>
-      </c>
-      <c r="K17" t="s" s="52">
-        <v>140</v>
-      </c>
-      <c r="L17" t="s" s="52">
-        <v>60</v>
-      </c>
-      <c r="M17" s="42">
+        <v>158</v>
+      </c>
+      <c r="I17" t="s" s="53">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s" s="51">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s" s="51">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s" s="51">
+        <v>62</v>
+      </c>
+      <c r="M17" s="41">
         <v>6</v>
       </c>
-      <c r="N17" s="42">
+      <c r="N17" s="41">
         <v>2</v>
       </c>
       <c r="O17" s="9"/>
-      <c r="P17" s="42">
+      <c r="P17" s="41">
         <v>34</v>
       </c>
-      <c r="Q17" s="42">
+      <c r="Q17" s="41">
         <v>2</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="41">
         <v>1</v>
       </c>
       <c r="S17" t="s" s="4">
-        <v>146</v>
-      </c>
-      <c r="T17" s="42">
+        <v>161</v>
+      </c>
+      <c r="T17" s="41">
         <v>1</v>
       </c>
       <c r="U17" t="s" s="4">
-        <v>147</v>
-      </c>
-      <c r="V17" s="42">
-        <v>1</v>
-      </c>
-      <c r="W17" s="42">
+        <v>162</v>
+      </c>
+      <c r="V17" s="41">
+        <v>1</v>
+      </c>
+      <c r="W17" s="41">
         <v>2</v>
       </c>
-      <c r="X17" s="42">
+      <c r="X17" s="55">
         <v>999</v>
       </c>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
+      <c r="Y17" t="s" s="21">
+        <v>163</v>
+      </c>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
     </row>
     <row r="18" ht="13.75" customHeight="1">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50">
         <v>15</v>
       </c>
-      <c r="C18" t="s" s="52">
-        <v>148</v>
-      </c>
-      <c r="D18" t="s" s="52">
-        <v>89</v>
-      </c>
-      <c r="E18" t="s" s="52">
-        <v>59</v>
-      </c>
-      <c r="F18" s="51">
+      <c r="C18" t="s" s="51">
+        <v>164</v>
+      </c>
+      <c r="D18" t="s" s="51">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s" s="51">
+        <v>61</v>
+      </c>
+      <c r="F18" s="50">
         <v>40</v>
       </c>
-      <c r="G18" t="s" s="55">
-        <v>60</v>
+      <c r="G18" t="s" s="54">
+        <v>62</v>
       </c>
       <c r="H18" t="s" s="23">
-        <v>149</v>
-      </c>
-      <c r="I18" t="s" s="54">
-        <v>74</v>
-      </c>
-      <c r="J18" t="s" s="52">
-        <v>145</v>
-      </c>
-      <c r="K18" t="s" s="52">
-        <v>140</v>
-      </c>
-      <c r="L18" t="s" s="52">
-        <v>60</v>
-      </c>
-      <c r="M18" s="42">
+        <v>165</v>
+      </c>
+      <c r="I18" t="s" s="53">
+        <v>77</v>
+      </c>
+      <c r="J18" t="s" s="51">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s" s="51">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s" s="51">
+        <v>62</v>
+      </c>
+      <c r="M18" s="41">
         <v>3.5</v>
       </c>
-      <c r="N18" s="42">
-        <v>1</v>
-      </c>
-      <c r="O18" s="42">
+      <c r="N18" s="41">
+        <v>1</v>
+      </c>
+      <c r="O18" s="41">
         <v>15</v>
       </c>
-      <c r="P18" s="42">
+      <c r="P18" s="41">
         <v>35</v>
       </c>
-      <c r="Q18" s="42">
-        <v>1</v>
-      </c>
-      <c r="R18" s="42">
+      <c r="Q18" s="41">
+        <v>1</v>
+      </c>
+      <c r="R18" s="41">
         <v>1</v>
       </c>
       <c r="S18" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="T18" s="42">
+        <v>70</v>
+      </c>
+      <c r="T18" s="41">
         <v>0</v>
       </c>
       <c r="U18" t="s" s="4">
-        <v>60</v>
-      </c>
-      <c r="V18" s="42">
+        <v>62</v>
+      </c>
+      <c r="V18" s="41">
         <v>0</v>
       </c>
-      <c r="W18" s="42">
+      <c r="W18" s="57">
         <v>3</v>
       </c>
-      <c r="X18" s="42">
+      <c r="X18" s="39">
         <v>999</v>
       </c>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="57"/>
+      <c r="Y18" t="s" s="6">
+        <v>166</v>
+      </c>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="58"/>
       <c r="AG18" s="58"/>
-    </row>
-    <row r="19" ht="13.75" customHeight="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="60"/>
-      <c r="AA19" s="60"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="60"/>
-      <c r="AD19" s="60"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="60"/>
-      <c r="AG19" s="61"/>
-    </row>
-    <row r="20" ht="13.75" customHeight="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="60"/>
-      <c r="AB20" s="60"/>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="60"/>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="60"/>
-      <c r="AG20" s="61"/>
-    </row>
-    <row r="21" ht="13.75" customHeight="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="61"/>
-    </row>
-    <row r="22" ht="13.75" customHeight="1">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="64"/>
-      <c r="AB22" s="64"/>
-      <c r="AC22" s="64"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="64"/>
-      <c r="AF22" s="64"/>
-      <c r="AG22" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
